--- a/Results-Goo - Final.xlsx
+++ b/Results-Goo - Final.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>Instance names</t>
   </si>
@@ -78,6 +78,54 @@
     <t>goo12</t>
   </si>
   <si>
+    <t>goo13</t>
+  </si>
+  <si>
+    <t>goo14</t>
+  </si>
+  <si>
+    <t>goo15</t>
+  </si>
+  <si>
+    <t>goo16</t>
+  </si>
+  <si>
+    <t>goo17</t>
+  </si>
+  <si>
+    <t>goo18</t>
+  </si>
+  <si>
+    <t>goo19</t>
+  </si>
+  <si>
+    <t>goo20</t>
+  </si>
+  <si>
+    <t>goo21</t>
+  </si>
+  <si>
+    <t>goo22</t>
+  </si>
+  <si>
+    <t>goo23</t>
+  </si>
+  <si>
+    <t>goo24</t>
+  </si>
+  <si>
+    <t>goo25</t>
+  </si>
+  <si>
+    <t>goo26</t>
+  </si>
+  <si>
+    <t>goo27</t>
+  </si>
+  <si>
+    <t>goo28</t>
+  </si>
+  <si>
     <t>Naïve Worst Case (1 car per 1 request)</t>
   </si>
   <si>
@@ -108,6 +156,9 @@
     <t>AVG 3-voter Distances</t>
   </si>
   <si>
+    <t>AVG Final vote assigned Vehicles</t>
+  </si>
+  <si>
     <t>AVG Nearest Routable's CT</t>
   </si>
   <si>
@@ -136,9 +187,6 @@
   </si>
   <si>
     <t>AVG 3-voter with condition assigned  Distances/Vehicles</t>
-  </si>
-  <si>
-    <t>AVG 3-vote assigned Vehicles</t>
   </si>
 </sst>
 </file>
@@ -614,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4:AY15"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DL10" sqref="DL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -653,7 +701,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="19" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -661,7 +709,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
@@ -669,7 +717,7 @@
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
       <c r="W1" s="19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
@@ -677,7 +725,7 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="19" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="20"/>
       <c r="AE1" s="20"/>
@@ -685,7 +733,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
       <c r="AI1" s="19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
@@ -693,7 +741,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
       <c r="AO1" s="19" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="AP1" s="20"/>
       <c r="AQ1" s="20"/>
@@ -701,7 +749,7 @@
       <c r="AS1" s="20"/>
       <c r="AT1" s="20"/>
       <c r="AU1" s="19" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AV1" s="20"/>
       <c r="AW1" s="20"/>
@@ -709,7 +757,7 @@
       <c r="AY1" s="20"/>
       <c r="AZ1" s="21"/>
       <c r="BA1" s="19" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="BB1" s="20"/>
       <c r="BC1" s="20"/>
@@ -717,7 +765,7 @@
       <c r="BE1" s="20"/>
       <c r="BF1" s="20"/>
       <c r="BG1" s="19" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="BH1" s="20"/>
       <c r="BI1" s="20"/>
@@ -725,7 +773,7 @@
       <c r="BK1" s="20"/>
       <c r="BL1" s="20"/>
       <c r="BM1" s="19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="BN1" s="20"/>
       <c r="BO1" s="20"/>
@@ -733,7 +781,7 @@
       <c r="BQ1" s="20"/>
       <c r="BR1" s="20"/>
       <c r="BS1" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="BT1" s="20"/>
       <c r="BU1" s="20"/>
@@ -741,7 +789,7 @@
       <c r="BW1" s="20"/>
       <c r="BX1" s="21"/>
       <c r="BY1" s="19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BZ1" s="20"/>
       <c r="CA1" s="20"/>
@@ -749,7 +797,7 @@
       <c r="CC1" s="20"/>
       <c r="CD1" s="20"/>
       <c r="CE1" s="19" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="CF1" s="20"/>
       <c r="CG1" s="20"/>
@@ -757,7 +805,7 @@
       <c r="CI1" s="20"/>
       <c r="CJ1" s="20"/>
       <c r="CK1" s="19" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="CL1" s="20"/>
       <c r="CM1" s="20"/>
@@ -765,7 +813,7 @@
       <c r="CO1" s="20"/>
       <c r="CP1" s="20"/>
       <c r="CQ1" s="19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="CR1" s="20"/>
       <c r="CS1" s="20"/>
@@ -773,7 +821,7 @@
       <c r="CU1" s="20"/>
       <c r="CV1" s="21"/>
       <c r="CW1" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="CX1" s="20"/>
       <c r="CY1" s="20"/>
@@ -781,7 +829,7 @@
       <c r="DA1" s="20"/>
       <c r="DB1" s="20"/>
       <c r="DC1" s="19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="DD1" s="20"/>
       <c r="DE1" s="20"/>
@@ -789,7 +837,7 @@
       <c r="DG1" s="20"/>
       <c r="DH1" s="20"/>
       <c r="DI1" s="19" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="DJ1" s="20"/>
       <c r="DK1" s="20"/>
@@ -1425,37 +1473,67 @@
         <f>(AH4/AN4)</f>
         <v>28244.805970149253</v>
       </c>
+      <c r="AU4">
+        <v>82455</v>
+      </c>
+      <c r="AV4">
+        <v>32954</v>
+      </c>
+      <c r="AW4">
+        <v>148330.6</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>115392.6</v>
+      </c>
       <c r="AZ4" s="13">
         <f>SUM(AU4:AY4)</f>
-        <v>0</v>
+        <v>379132.19999999995</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <v>4</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>3.4</v>
       </c>
       <c r="BF4">
         <f>SUM(BA4:BE4)</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1" t="e">
+        <v>12.4</v>
+      </c>
+      <c r="BG4" s="1">
         <f>(AU4/BA4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH4" t="e">
+        <v>27485</v>
+      </c>
+      <c r="BH4">
         <f t="shared" ref="BH4:BK4" si="8">(AV4/BB4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI4" t="e">
+        <v>16477</v>
+      </c>
+      <c r="BI4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>37082.65</v>
       </c>
       <c r="BJ4" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK4" t="e">
+      <c r="BK4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL4" s="13" t="e">
+        <v>33939</v>
+      </c>
+      <c r="BL4" s="13">
         <f>(AZ4/BF4)</f>
-        <v>#DIV/0!</v>
+        <v>30575.177419354834</v>
       </c>
       <c r="BM4">
         <v>8.6362070083618097</v>
@@ -1538,46 +1616,105 @@
         <f>BX4/CD4</f>
         <v>27797.338235294119</v>
       </c>
+      <c r="CK4">
+        <v>4.4659114360809298</v>
+      </c>
+      <c r="CL4">
+        <v>2.78907551765441</v>
+      </c>
+      <c r="CM4">
+        <v>23.4386201381683</v>
+      </c>
+      <c r="CN4">
+        <v>1.1528434276580799</v>
+      </c>
+      <c r="CO4">
+        <v>7.1468550443649201</v>
+      </c>
       <c r="CP4" s="13">
         <f>SUM(CK4:CO4)</f>
-        <v>0</v>
+        <v>38.99330556392664</v>
+      </c>
+      <c r="CQ4">
+        <v>32016</v>
+      </c>
+      <c r="CR4">
+        <v>6615</v>
+      </c>
+      <c r="CS4">
+        <v>318600.7</v>
+      </c>
+      <c r="CT4">
+        <v>11241</v>
+      </c>
+      <c r="CU4">
+        <v>6837</v>
       </c>
       <c r="CV4" s="13">
         <f>SUM(CQ4:CU4)</f>
-        <v>0</v>
+        <v>375309.7</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>8</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
       </c>
       <c r="DB4">
         <f>SUM(CW4:DA4)</f>
-        <v>0</v>
-      </c>
-      <c r="DC4" s="5" t="e">
+        <v>12</v>
+      </c>
+      <c r="DC4" s="5">
         <f>CQ4/CW4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DD4" s="5" t="e">
+        <v>32016</v>
+      </c>
+      <c r="DD4" s="5">
         <f t="shared" ref="DD4:DG5" si="10">CR4/CX4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DE4" s="5" t="e">
+        <v>6615</v>
+      </c>
+      <c r="DE4" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF4" s="5" t="e">
+        <v>39825.087500000001</v>
+      </c>
+      <c r="DF4" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG4" s="5" t="e">
+        <v>11241</v>
+      </c>
+      <c r="DG4" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH4" s="4" t="e">
+        <v>6837</v>
+      </c>
+      <c r="DH4" s="4">
         <f>CV4/DB4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI4" s="1"/>
+        <v>31275.808333333334</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>1.9079454183578399</v>
+      </c>
+      <c r="DJ4">
+        <v>1.0843778848648</v>
+      </c>
+      <c r="DK4">
+        <v>60.103556871414099</v>
+      </c>
+      <c r="DL4">
+        <v>1.0725058555603</v>
+      </c>
+      <c r="DM4">
+        <v>1.0938694715499799</v>
+      </c>
       <c r="DN4" s="13">
         <f>SUM(DI4:DM4)</f>
-        <v>0</v>
+        <v>65.262255501747021</v>
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.25">
@@ -1737,37 +1874,67 @@
         <f t="shared" ref="AT5:AT15" si="21">(AH5/AN5)</f>
         <v>33996.571428571428</v>
       </c>
+      <c r="AU5">
+        <v>82209</v>
+      </c>
+      <c r="AV5">
+        <v>24848</v>
+      </c>
+      <c r="AW5">
+        <v>92782.3</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>152363.9</v>
+      </c>
       <c r="AZ5" s="3">
         <f t="shared" ref="AZ5:AZ15" si="22">SUM(AU5:AY5)</f>
-        <v>0</v>
+        <v>352203.19999999995</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>2.8</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
       </c>
       <c r="BF5">
         <f t="shared" ref="BF5:BF15" si="23">SUM(BA5:BE5)</f>
-        <v>0</v>
-      </c>
-      <c r="BG5" s="5" t="e">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BG5" s="5">
         <f t="shared" ref="BG5:BG15" si="24">(AU5/BA5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH5" t="e">
+        <v>27403</v>
+      </c>
+      <c r="BH5">
         <f t="shared" ref="BH5:BH15" si="25">(AV5/BB5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI5" t="e">
+        <v>24848</v>
+      </c>
+      <c r="BI5">
         <f t="shared" ref="BI5:BI15" si="26">(AW5/BC5)</f>
-        <v>#DIV/0!</v>
+        <v>33136.535714285717</v>
       </c>
       <c r="BJ5" t="e">
         <f t="shared" ref="BJ5:BJ15" si="27">(AX5/BD5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK5" t="e">
+      <c r="BK5">
         <f t="shared" ref="BK5:BK15" si="28">(AY5/BE5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL5" s="3" t="e">
+        <v>50787.966666666667</v>
+      </c>
+      <c r="BL5" s="3">
         <f t="shared" ref="BL5:BL15" si="29">(AZ5/BF5)</f>
-        <v>#DIV/0!</v>
+        <v>35939.102040816317</v>
       </c>
       <c r="BM5">
         <v>5.0811015367507899</v>
@@ -1850,46 +2017,105 @@
         <f t="shared" ref="CJ5:CJ15" si="38">BX5/CD5</f>
         <v>30452.583333333332</v>
       </c>
+      <c r="CK5">
+        <v>9.8962912321090695</v>
+      </c>
+      <c r="CL5">
+        <v>4.6336964368820102</v>
+      </c>
+      <c r="CM5">
+        <v>10.935893225669799</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>9.3303527832031197</v>
+      </c>
       <c r="CP5" s="3">
         <f t="shared" ref="CP5:CP15" si="39">SUM(CK5:CO5)</f>
-        <v>0</v>
+        <v>34.796233677863995</v>
+      </c>
+      <c r="CQ5">
+        <v>77440</v>
+      </c>
+      <c r="CR5">
+        <v>227084.6</v>
+      </c>
+      <c r="CS5">
+        <v>34904</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>15474</v>
       </c>
       <c r="CV5" s="3">
-        <f t="shared" ref="CV5:CV12" si="40">SUM(CQ5:CU5)</f>
-        <v>0</v>
+        <f t="shared" ref="CV5:CV15" si="40">SUM(CQ5:CU5)</f>
+        <v>354902.6</v>
+      </c>
+      <c r="CW5">
+        <v>4</v>
+      </c>
+      <c r="CX5">
+        <v>5</v>
+      </c>
+      <c r="CY5">
+        <v>2</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
       </c>
       <c r="DB5">
         <f t="shared" ref="DB5:DB15" si="41">SUM(CW5:DA5)</f>
-        <v>0</v>
-      </c>
-      <c r="DC5" s="5" t="e">
+        <v>12</v>
+      </c>
+      <c r="DC5" s="5">
         <f>CQ5/CW5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DD5" s="5" t="e">
+        <v>19360</v>
+      </c>
+      <c r="DD5" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DE5" s="5" t="e">
+        <v>45416.92</v>
+      </c>
+      <c r="DE5" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>17452</v>
       </c>
       <c r="DF5" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DG5" s="5" t="e">
+      <c r="DG5" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH5" s="4" t="e">
+        <v>15474</v>
+      </c>
+      <c r="DH5" s="4">
         <f t="shared" ref="DH5:DH12" si="42">CV5/DB5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI5" s="5"/>
+        <v>29575.216666666664</v>
+      </c>
+      <c r="DI5" s="5">
+        <v>5.7849385738372803</v>
+      </c>
+      <c r="DJ5">
+        <v>42.716294622421202</v>
+      </c>
+      <c r="DK5">
+        <v>3.9830373764038001</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>1.04716594219207</v>
+      </c>
       <c r="DN5" s="3">
         <f t="shared" ref="DN5:DN15" si="43">SUM(DI5:DM5)</f>
-        <v>0</v>
+        <v>53.531436514854356</v>
       </c>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.25">
@@ -2049,37 +2275,67 @@
         <f t="shared" si="21"/>
         <v>33597.272727272728</v>
       </c>
+      <c r="AU6">
+        <v>87801</v>
+      </c>
+      <c r="AV6">
+        <v>54693</v>
+      </c>
+      <c r="AW6">
+        <v>150084.29999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>78985</v>
+      </c>
       <c r="AZ6" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>371563.3</v>
+      </c>
+      <c r="BA6">
+        <v>3</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>4</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>4</v>
       </c>
       <c r="BF6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="5" t="e">
+        <v>12</v>
+      </c>
+      <c r="BG6" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH6" t="e">
+        <v>29267</v>
+      </c>
+      <c r="BH6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI6" t="e">
+        <v>54693</v>
+      </c>
+      <c r="BI6">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>37521.074999999997</v>
       </c>
       <c r="BJ6" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK6" t="e">
+      <c r="BK6">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL6" s="3" t="e">
+        <v>19746.25</v>
+      </c>
+      <c r="BL6" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>30963.608333333334</v>
       </c>
       <c r="BM6">
         <v>8.7860134601592996</v>
@@ -2162,46 +2418,105 @@
         <f t="shared" si="38"/>
         <v>31638.508928571431</v>
       </c>
+      <c r="CK6">
+        <v>10.2209987878799</v>
+      </c>
+      <c r="CL6">
+        <v>1.5961763381958001</v>
+      </c>
+      <c r="CM6">
+        <v>24.863498139381399</v>
+      </c>
+      <c r="CN6">
+        <v>3.94127295017242</v>
+      </c>
+      <c r="CO6">
+        <v>2.51900899410247</v>
+      </c>
       <c r="CP6" s="3">
         <f t="shared" si="39"/>
+        <v>43.140955209731992</v>
+      </c>
+      <c r="CQ6">
+        <v>30176</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>266110.09999999998</v>
+      </c>
+      <c r="CT6">
+        <v>16434</v>
+      </c>
+      <c r="CU6">
         <v>0</v>
       </c>
       <c r="CV6" s="3">
-        <f>SUM(CQ6:CU6)</f>
+        <f t="shared" si="40"/>
+        <v>312720.09999999998</v>
+      </c>
+      <c r="CW6">
+        <v>2</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>6.5</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
         <v>0</v>
       </c>
       <c r="DB6">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC6" s="5" t="e">
-        <f>CQ6/CW6</f>
+        <v>9.5</v>
+      </c>
+      <c r="DC6" s="5">
+        <f t="shared" ref="DC6:DC12" si="44">CQ6/CW6</f>
+        <v>15088</v>
+      </c>
+      <c r="DD6" s="5" t="e">
+        <f t="shared" ref="DD6:DD12" si="45">CR6/CX6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD6" s="5" t="e">
-        <f>CR6/CX6</f>
+      <c r="DE6" s="5">
+        <f t="shared" ref="DE6:DE12" si="46">CS6/CY6</f>
+        <v>40940.015384615384</v>
+      </c>
+      <c r="DF6" s="5">
+        <f t="shared" ref="DF6:DF12" si="47">CT6/CZ6</f>
+        <v>16434</v>
+      </c>
+      <c r="DG6" s="5" t="e">
+        <f t="shared" ref="DG6:DG12" si="48">CU6/DA6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="DE6" s="5" t="e">
-        <f>CS6/CY6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF6" s="5" t="e">
-        <f>CT6/CZ6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG6" s="5" t="e">
-        <f>CU6/DA6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH6" s="4" t="e">
+      <c r="DH6" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI6" s="5"/>
+        <v>32917.905263157889</v>
+      </c>
+      <c r="DI6" s="5">
+        <v>2.98334300518035</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>73.358087897300706</v>
+      </c>
+      <c r="DL6">
+        <v>1.0864167213439899</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
       <c r="DN6" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>77.427847623825045</v>
       </c>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.25">
@@ -2361,37 +2676,67 @@
         <f t="shared" si="21"/>
         <v>30818.808695652173</v>
       </c>
+      <c r="AU7">
+        <v>69142</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>193568.9</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>43586</v>
+      </c>
       <c r="AZ7" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>306296.90000000002</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>5.5</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>2</v>
       </c>
       <c r="BF7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="5" t="e">
+        <v>9.5</v>
+      </c>
+      <c r="BG7" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>34571</v>
       </c>
       <c r="BH7" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI7" t="e">
+      <c r="BI7">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>35194.345454545452</v>
       </c>
       <c r="BJ7" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK7" t="e">
+      <c r="BK7">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL7" s="3" t="e">
+        <v>21793</v>
+      </c>
+      <c r="BL7" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>32241.778947368424</v>
       </c>
       <c r="BM7">
         <v>5.8467461824417102</v>
@@ -2474,46 +2819,105 @@
         <f t="shared" si="38"/>
         <v>42908.399999999994</v>
       </c>
+      <c r="CK7">
+        <v>9.1527351856231594</v>
+      </c>
+      <c r="CL7">
+        <v>1.1547790050506499</v>
+      </c>
+      <c r="CM7">
+        <v>24.158268356323202</v>
+      </c>
+      <c r="CN7">
+        <v>1.5284172534942599</v>
+      </c>
+      <c r="CO7">
+        <v>5.6956154108047397</v>
+      </c>
       <c r="CP7" s="3">
         <f t="shared" si="39"/>
+        <v>41.689815211296015</v>
+      </c>
+      <c r="CQ7">
+        <v>29958</v>
+      </c>
+      <c r="CR7">
+        <v>285637.8</v>
+      </c>
+      <c r="CS7">
+        <v>26289</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
         <v>0</v>
       </c>
       <c r="CV7" s="3">
-        <f>SUM(CQ7:CU7)</f>
+        <f t="shared" si="40"/>
+        <v>341884.8</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>5.2</v>
+      </c>
+      <c r="CY7">
+        <v>2</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
         <v>0</v>
       </c>
       <c r="DB7">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC7" s="5" t="e">
-        <f>CQ7/CW7</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DC7" s="5">
+        <f t="shared" si="44"/>
+        <v>29958</v>
+      </c>
+      <c r="DD7" s="5">
+        <f t="shared" si="45"/>
+        <v>54930.346153846149</v>
+      </c>
+      <c r="DE7" s="5">
+        <f t="shared" si="46"/>
+        <v>13144.5</v>
+      </c>
+      <c r="DF7" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD7" s="5" t="e">
-        <f>CR7/CX7</f>
+      <c r="DG7" s="5" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DE7" s="5" t="e">
-        <f>CS7/CY7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF7" s="5" t="e">
-        <f>CT7/CZ7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG7" s="5" t="e">
-        <f>CU7/DA7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH7" s="4" t="e">
+      <c r="DH7" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI7" s="5"/>
+        <v>41693.268292682929</v>
+      </c>
+      <c r="DI7" s="5">
+        <v>1.81657888889312</v>
+      </c>
+      <c r="DJ7">
+        <v>57.419334030151298</v>
+      </c>
+      <c r="DK7">
+        <v>3.3766204833984301</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
       <c r="DN7" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>62.61253340244285</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.25">
@@ -2673,37 +3077,67 @@
         <f t="shared" si="21"/>
         <v>42923.7</v>
       </c>
+      <c r="AU8">
+        <v>72546</v>
+      </c>
+      <c r="AV8">
+        <v>22175</v>
+      </c>
+      <c r="AW8">
+        <v>178562.3</v>
+      </c>
+      <c r="AX8">
+        <v>15541</v>
+      </c>
+      <c r="AY8">
+        <v>86148</v>
+      </c>
       <c r="AZ8" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>374972.3</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>2</v>
       </c>
       <c r="BF8">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG8" s="5" t="e">
+        <v>10.1</v>
+      </c>
+      <c r="BG8" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH8" t="e">
+        <v>36273</v>
+      </c>
+      <c r="BH8">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI8" t="e">
+        <v>22175</v>
+      </c>
+      <c r="BI8">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ8" t="e">
+        <v>43551.780487804877</v>
+      </c>
+      <c r="BJ8">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK8" t="e">
+        <v>15541</v>
+      </c>
+      <c r="BK8">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL8" s="3" t="e">
+        <v>43074</v>
+      </c>
+      <c r="BL8" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>37125.9702970297</v>
       </c>
       <c r="BM8">
         <v>4.9106856107711696</v>
@@ -2786,46 +3220,105 @@
         <f t="shared" si="38"/>
         <v>31549.569105691055</v>
       </c>
+      <c r="CK8">
+        <v>8.8399614095687795</v>
+      </c>
+      <c r="CL8">
+        <v>4.59515991210937</v>
+      </c>
+      <c r="CM8">
+        <v>13.0503684282302</v>
+      </c>
+      <c r="CN8">
+        <v>1.2129016399383501</v>
+      </c>
+      <c r="CO8">
+        <v>6.2964699268341002</v>
+      </c>
       <c r="CP8" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.994861316680804</v>
+      </c>
+      <c r="CQ8">
+        <v>32952</v>
+      </c>
+      <c r="CR8">
+        <v>8262</v>
+      </c>
+      <c r="CS8">
+        <v>289370.40000000002</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>7706</v>
       </c>
       <c r="CV8" s="3">
-        <f>SUM(CQ8:CU8)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>338290.4</v>
+      </c>
+      <c r="CW8">
+        <v>2</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>6.2</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>1</v>
       </c>
       <c r="DB8">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC8" s="5" t="e">
-        <f>CQ8/CW8</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="DC8" s="5">
+        <f t="shared" si="44"/>
+        <v>16476</v>
+      </c>
+      <c r="DD8" s="5">
+        <f t="shared" si="45"/>
+        <v>8262</v>
+      </c>
+      <c r="DE8" s="5">
+        <f t="shared" si="46"/>
+        <v>46672.645161290326</v>
+      </c>
+      <c r="DF8" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD8" s="5" t="e">
-        <f>CR8/CX8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DE8" s="5" t="e">
-        <f>CS8/CY8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF8" s="5" t="e">
-        <f>CT8/CZ8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG8" s="5" t="e">
-        <f>CU8/DA8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH8" s="4" t="e">
+      <c r="DG8" s="5">
+        <f t="shared" si="48"/>
+        <v>7706</v>
+      </c>
+      <c r="DH8" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI8" s="5"/>
+        <v>33165.725490196084</v>
+      </c>
+      <c r="DI8" s="5">
+        <v>3.4646077156066801</v>
+      </c>
+      <c r="DJ8">
+        <v>1.1642884016036901</v>
+      </c>
+      <c r="DK8">
+        <v>69.958357524871801</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>1.1406260251998901</v>
+      </c>
       <c r="DN8" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>75.727879667282068</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.25">
@@ -2985,37 +3478,67 @@
         <f t="shared" si="21"/>
         <v>32111.25619834711</v>
       </c>
+      <c r="AU9">
+        <v>70349.899999999994</v>
+      </c>
+      <c r="AV9">
+        <v>44204</v>
+      </c>
+      <c r="AW9">
+        <v>168589</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>88570</v>
+      </c>
       <c r="AZ9" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>371712.9</v>
+      </c>
+      <c r="BA9">
+        <v>3.1</v>
+      </c>
+      <c r="BB9">
+        <v>2</v>
+      </c>
+      <c r="BC9">
+        <v>4</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
       </c>
       <c r="BF9">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG9" s="5" t="e">
+        <v>11.1</v>
+      </c>
+      <c r="BG9" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH9" t="e">
+        <v>22693.516129032254</v>
+      </c>
+      <c r="BH9">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI9" t="e">
+        <v>22102</v>
+      </c>
+      <c r="BI9">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>42147.25</v>
       </c>
       <c r="BJ9" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK9" t="e">
+      <c r="BK9">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL9" s="3" t="e">
+        <v>44285</v>
+      </c>
+      <c r="BL9" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>33487.648648648654</v>
       </c>
       <c r="BM9">
         <v>8.5675679206848105</v>
@@ -3075,69 +3598,128 @@
         <v>10.600000000000001</v>
       </c>
       <c r="CE9" s="5">
-        <f t="shared" ref="CE9:CE15" si="44">BS9/BY9</f>
+        <f t="shared" ref="CE9:CE15" si="49">BS9/BY9</f>
         <v>49621</v>
       </c>
       <c r="CF9" s="5" t="e">
-        <f t="shared" ref="CF9:CF15" si="45">BT9/BZ9</f>
+        <f t="shared" ref="CF9:CF15" si="50">BT9/BZ9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CG9" s="5">
-        <f t="shared" ref="CG9:CG15" si="46">BU9/CA9</f>
+        <f t="shared" ref="CG9:CG15" si="51">BU9/CA9</f>
         <v>35851.270270270274</v>
       </c>
       <c r="CH9" s="5" t="e">
-        <f t="shared" ref="CH9:CH15" si="47">BV9/CB9</f>
+        <f t="shared" ref="CH9:CH15" si="52">BV9/CB9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI9" s="5">
-        <f t="shared" ref="CI9:CI15" si="48">BW9/CC9</f>
+        <f t="shared" ref="CI9:CI15" si="53">BW9/CC9</f>
         <v>31131.489795918362</v>
       </c>
       <c r="CJ9" s="3">
         <f t="shared" si="38"/>
         <v>36267.547169811318</v>
       </c>
+      <c r="CK9">
+        <v>7.8073833227157596</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>16.971246862411402</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>13.1108043909072</v>
+      </c>
       <c r="CP9" s="3">
         <f t="shared" si="39"/>
+        <v>37.889434576034361</v>
+      </c>
+      <c r="CQ9">
+        <v>337297.5</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>26493</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
         <v>0</v>
       </c>
       <c r="CV9" s="3">
         <f t="shared" si="40"/>
+        <v>363790.5</v>
+      </c>
+      <c r="CW9">
+        <v>6.9</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>2</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
         <v>0</v>
       </c>
       <c r="DB9">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC9" s="5" t="e">
-        <f t="shared" ref="DC9:DC12" si="49">CQ9/CW9</f>
+        <v>8.9</v>
+      </c>
+      <c r="DC9" s="5">
+        <f t="shared" si="44"/>
+        <v>48883.695652173912</v>
+      </c>
+      <c r="DD9" s="5" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD9" s="5" t="e">
-        <f t="shared" ref="DD9:DD12" si="50">CR9/CX9</f>
+      <c r="DE9" s="5">
+        <f t="shared" si="46"/>
+        <v>13246.5</v>
+      </c>
+      <c r="DF9" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DE9" s="5" t="e">
-        <f t="shared" ref="DE9:DE12" si="51">CS9/CY9</f>
+      <c r="DG9" s="5" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DF9" s="5" t="e">
-        <f t="shared" ref="DF9:DF12" si="52">CT9/CZ9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG9" s="5" t="e">
-        <f t="shared" ref="DG9:DG12" si="53">CU9/DA9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH9" s="4" t="e">
+      <c r="DH9" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI9" s="5"/>
+        <v>40875.337078651683</v>
+      </c>
+      <c r="DI9" s="5">
+        <v>69.020643329620299</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>3.8260488748550401</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
       <c r="DN9" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>72.846692204475346</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.25">
@@ -3297,37 +3879,67 @@
         <f t="shared" si="21"/>
         <v>39384.797979797986</v>
       </c>
+      <c r="AU10">
+        <v>111697.3</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>125706.3</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>166606.20000000001</v>
+      </c>
       <c r="AZ10" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>404009.80000000005</v>
+      </c>
+      <c r="BA10">
+        <v>2.4</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>3.8</v>
       </c>
       <c r="BF10">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG10" s="5" t="e">
+        <v>11.100000000000001</v>
+      </c>
+      <c r="BG10" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>46540.541666666672</v>
       </c>
       <c r="BH10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI10" t="e">
+      <c r="BI10">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>25654.34693877551</v>
       </c>
       <c r="BJ10" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK10" t="e">
+      <c r="BK10">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL10" s="3" t="e">
+        <v>43843.736842105267</v>
+      </c>
+      <c r="BL10" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>36397.279279279275</v>
       </c>
       <c r="BM10">
         <v>10.6925768613815</v>
@@ -3387,69 +3999,128 @@
         <v>8</v>
       </c>
       <c r="CE10" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>32037.5</v>
       </c>
       <c r="CF10" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>51594</v>
       </c>
       <c r="CG10" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>34933</v>
       </c>
       <c r="CH10" s="5" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI10" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>39769.333333333336</v>
       </c>
       <c r="CJ10" s="13">
         <f t="shared" si="38"/>
         <v>38105.375</v>
       </c>
+      <c r="CK10">
+        <v>6.8691866397857604</v>
+      </c>
+      <c r="CL10">
+        <v>3.0188494443893399</v>
+      </c>
+      <c r="CM10">
+        <v>17.964353466033899</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>12.3501398324966</v>
+      </c>
       <c r="CP10" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>40.202529382705599</v>
+      </c>
+      <c r="CQ10">
+        <v>28339</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>234566.2</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>33051</v>
       </c>
       <c r="CV10" s="3">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>295956.2</v>
+      </c>
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>2</v>
       </c>
       <c r="DB10">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC10" s="5" t="e">
-        <f t="shared" si="49"/>
+        <v>8.1</v>
+      </c>
+      <c r="DC10" s="5">
+        <f t="shared" si="44"/>
+        <v>28339</v>
+      </c>
+      <c r="DD10" s="5" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD10" s="5" t="e">
-        <f t="shared" si="50"/>
+      <c r="DE10" s="5">
+        <f t="shared" si="46"/>
+        <v>45993.372549019616</v>
+      </c>
+      <c r="DF10" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DE10" s="5" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF10" s="5" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG10" s="5" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH10" s="4" t="e">
+      <c r="DG10" s="5">
+        <f t="shared" si="48"/>
+        <v>16525.5</v>
+      </c>
+      <c r="DH10" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI10" s="5"/>
+        <v>36537.802469135808</v>
+      </c>
+      <c r="DI10" s="5">
+        <v>3.31782441139221</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>81.595652031898496</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>2.8147403955459498</v>
+      </c>
       <c r="DN10" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>87.728216838836659</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.25">
@@ -3609,37 +4280,67 @@
         <f t="shared" si="21"/>
         <v>38084.949999999997</v>
       </c>
+      <c r="AU11">
+        <v>114830.39999999999</v>
+      </c>
+      <c r="AV11">
+        <v>15356</v>
+      </c>
+      <c r="AW11">
+        <v>124501.8</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>63372.7</v>
+      </c>
       <c r="AZ11" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>318060.90000000002</v>
+      </c>
+      <c r="BA11">
+        <v>3</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>3.1</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>2</v>
       </c>
       <c r="BF11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG11" s="5" t="e">
+        <v>9.1</v>
+      </c>
+      <c r="BG11" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH11" t="e">
+        <v>38276.799999999996</v>
+      </c>
+      <c r="BH11">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI11" t="e">
+        <v>15356</v>
+      </c>
+      <c r="BI11">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>40161.870967741932</v>
       </c>
       <c r="BJ11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK11" t="e">
+      <c r="BK11">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL11" s="3" t="e">
+        <v>31686.35</v>
+      </c>
+      <c r="BL11" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>34951.747252747256</v>
       </c>
       <c r="BM11">
         <v>14.919938397407501</v>
@@ -3699,69 +4400,128 @@
         <v>7.2</v>
       </c>
       <c r="CE11" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>57824</v>
       </c>
       <c r="CF11" s="5" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG11" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>35841.03125</v>
       </c>
       <c r="CH11" s="5" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI11" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>58748</v>
       </c>
       <c r="CJ11" s="13">
         <f t="shared" si="38"/>
         <v>48310.458333333328</v>
       </c>
+      <c r="CK11">
+        <v>13.1864456176757</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>15.9439073324203</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>13.1917854070663</v>
+      </c>
       <c r="CP11" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>42.322138357162302</v>
+      </c>
+      <c r="CQ11">
+        <v>25470</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>290865.3</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>14322</v>
       </c>
       <c r="CV11" s="3">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>330657.3</v>
+      </c>
+      <c r="CW11">
+        <v>2</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>5.9</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
       </c>
       <c r="DB11">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC11" s="5" t="e">
-        <f t="shared" si="49"/>
+        <v>8.9</v>
+      </c>
+      <c r="DC11" s="5">
+        <f t="shared" si="44"/>
+        <v>12735</v>
+      </c>
+      <c r="DD11" s="5" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD11" s="5" t="e">
-        <f t="shared" si="50"/>
+      <c r="DE11" s="5">
+        <f t="shared" si="46"/>
+        <v>49299.203389830502</v>
+      </c>
+      <c r="DF11" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DE11" s="5" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF11" s="5" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG11" s="5" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH11" s="4" t="e">
+      <c r="DG11" s="5">
+        <f t="shared" si="48"/>
+        <v>14322</v>
+      </c>
+      <c r="DH11" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI11" s="5"/>
+        <v>37152.505617977527</v>
+      </c>
+      <c r="DI11" s="5">
+        <v>2.5956106662750198</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>90.378083276748598</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>1.2396449327468799</v>
+      </c>
       <c r="DN11" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>94.213338875770503</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.25">
@@ -3921,37 +4681,67 @@
         <f t="shared" si="21"/>
         <v>48309.208333333328</v>
       </c>
+      <c r="AU12">
+        <v>92102</v>
+      </c>
+      <c r="AV12">
+        <v>12392</v>
+      </c>
+      <c r="AW12">
+        <v>97788.5</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>148515.4</v>
+      </c>
       <c r="AZ12" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>350797.9</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>3.4</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>3</v>
       </c>
       <c r="BF12">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG12" s="5" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="BG12" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH12" t="e">
+        <v>30700.666666666668</v>
+      </c>
+      <c r="BH12">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI12" t="e">
+        <v>12392</v>
+      </c>
+      <c r="BI12">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>28761.323529411766</v>
       </c>
       <c r="BJ12" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK12" t="e">
+      <c r="BK12">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL12" s="3" t="e">
+        <v>49505.133333333331</v>
+      </c>
+      <c r="BL12" s="3">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>33730.567307692312</v>
       </c>
       <c r="BM12">
         <v>5.9262376546859699</v>
@@ -4011,69 +4801,128 @@
         <v>10</v>
       </c>
       <c r="CE12" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>46472.533333333333</v>
       </c>
       <c r="CF12" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>34697</v>
       </c>
       <c r="CG12" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>36818.133333333331</v>
       </c>
       <c r="CH12" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>16434</v>
       </c>
       <c r="CI12" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>39120.5</v>
       </c>
       <c r="CJ12" s="13">
         <f t="shared" si="38"/>
         <v>37924.400000000001</v>
       </c>
+      <c r="CK12">
+        <v>19.513508677482601</v>
+      </c>
+      <c r="CL12">
+        <v>1.47572810649871</v>
+      </c>
+      <c r="CM12">
+        <v>19.0407157421112</v>
+      </c>
+      <c r="CN12">
+        <v>1.1340616226196201</v>
+      </c>
+      <c r="CO12">
+        <v>5.2553614854812603</v>
+      </c>
       <c r="CP12" s="3">
         <f t="shared" si="39"/>
+        <v>46.419375634193393</v>
+      </c>
+      <c r="CQ12">
+        <v>27732</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>287690</v>
+      </c>
+      <c r="CT12">
+        <v>16434</v>
+      </c>
+      <c r="CU12">
         <v>0</v>
       </c>
       <c r="CV12" s="3">
         <f t="shared" si="40"/>
+        <v>331856</v>
+      </c>
+      <c r="CW12">
+        <v>1</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>5.7</v>
+      </c>
+      <c r="CZ12">
+        <v>1</v>
+      </c>
+      <c r="DA12">
         <v>0</v>
       </c>
       <c r="DB12">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="DC12" s="5" t="e">
-        <f t="shared" si="49"/>
+        <v>7.7</v>
+      </c>
+      <c r="DC12" s="5">
+        <f t="shared" si="44"/>
+        <v>27732</v>
+      </c>
+      <c r="DD12" s="5" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DD12" s="5" t="e">
-        <f t="shared" si="50"/>
+      <c r="DE12" s="5">
+        <f t="shared" si="46"/>
+        <v>50471.929824561405</v>
+      </c>
+      <c r="DF12" s="5">
+        <f t="shared" si="47"/>
+        <v>16434</v>
+      </c>
+      <c r="DG12" s="5" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DE12" s="5" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DF12" s="5" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DG12" s="5" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DH12" s="4" t="e">
+      <c r="DH12" s="4">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DI12" s="5"/>
+        <v>43098.181818181816</v>
+      </c>
+      <c r="DI12" s="5">
+        <v>2.81464302539825</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>83.618482232093797</v>
+      </c>
+      <c r="DL12">
+        <v>1.1014414548873901</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
       <c r="DN12" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>87.534566712379444</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.25">
@@ -4233,37 +5082,67 @@
         <f t="shared" si="21"/>
         <v>40636.395604395606</v>
       </c>
+      <c r="AU13">
+        <v>104112.4</v>
+      </c>
+      <c r="AV13">
+        <v>34697</v>
+      </c>
+      <c r="AW13">
+        <v>160147</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>67785</v>
+      </c>
       <c r="AZ13" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>366741.4</v>
+      </c>
+      <c r="BA13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>3.1</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>2</v>
       </c>
       <c r="BF13">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG13" s="5" t="e">
+        <v>9.1</v>
+      </c>
+      <c r="BG13" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH13" s="5" t="e">
+        <v>34704.133333333331</v>
+      </c>
+      <c r="BH13" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI13" s="5" t="e">
+        <v>34697</v>
+      </c>
+      <c r="BI13" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>51660.322580645159</v>
       </c>
       <c r="BJ13" s="5" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK13" s="5" t="e">
+      <c r="BK13" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL13" s="5" t="e">
+        <v>33892.5</v>
+      </c>
+      <c r="BL13" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>40301.252747252751</v>
       </c>
       <c r="BM13">
         <v>11.252057147025999</v>
@@ -4323,35 +5202,50 @@
         <v>11.3</v>
       </c>
       <c r="CE13" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>34380.815789473687</v>
       </c>
       <c r="CF13" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>24848</v>
       </c>
       <c r="CG13" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>23621.513513513513</v>
       </c>
       <c r="CH13" s="5" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI13" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>49173.357142857145</v>
       </c>
       <c r="CJ13" s="13">
         <f t="shared" si="38"/>
         <v>33679.654867256635</v>
       </c>
+      <c r="CK13">
+        <v>13.436569523811301</v>
+      </c>
+      <c r="CL13">
+        <v>1.0859034776687599</v>
+      </c>
+      <c r="CM13">
+        <v>14.5092234611511</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>10.178366971015899</v>
+      </c>
       <c r="CP13" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>39.210063433647058</v>
       </c>
       <c r="CQ13">
-        <v>288010.3</v>
+        <v>289096.90000000002</v>
       </c>
       <c r="CR13">
         <v>0</v>
@@ -4366,11 +5260,11 @@
         <v>34934</v>
       </c>
       <c r="CV13" s="3">
-        <f>SUM(CQ13:CU13)</f>
-        <v>352257.3</v>
+        <f t="shared" si="40"/>
+        <v>353343.9</v>
       </c>
       <c r="CW13">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="CX13">
         <v>0</v>
@@ -4386,50 +5280,50 @@
       </c>
       <c r="DB13">
         <f t="shared" si="41"/>
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="DC13" s="5">
         <f>CQ13/CW13</f>
-        <v>52365.509090909087</v>
+        <v>55595.557692307695</v>
       </c>
       <c r="DD13" s="5" t="e">
-        <f>CR13/CX13</f>
+        <f t="shared" ref="DD13:DG13" si="59">CR13/CX13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DE13" s="5">
-        <f>CS13/CY13</f>
+        <f t="shared" si="59"/>
         <v>14656.5</v>
       </c>
       <c r="DF13" s="5" t="e">
-        <f>CT13/CZ13</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG13" s="5">
-        <f>CU13/DA13</f>
+        <f t="shared" si="59"/>
         <v>34934</v>
       </c>
       <c r="DH13" s="4">
         <f>CV13/DB13</f>
-        <v>41442.035294117646</v>
-      </c>
-      <c r="DI13">
-        <v>67.032169294357303</v>
+        <v>43090.71951219513</v>
+      </c>
+      <c r="DI13" s="5">
+        <v>64.132511591911296</v>
       </c>
       <c r="DJ13">
         <v>0</v>
       </c>
       <c r="DK13">
-        <v>5.6393418312072701</v>
+        <v>5.4167600870132402</v>
       </c>
       <c r="DL13">
         <v>0</v>
       </c>
       <c r="DM13">
-        <v>1.5280706405639599</v>
+        <v>1.45205290317535</v>
       </c>
       <c r="DN13" s="3">
         <f t="shared" si="43"/>
-        <v>74.199581766128532</v>
+        <v>71.001324582099897</v>
       </c>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.25">
@@ -4589,37 +5483,67 @@
         <f t="shared" si="21"/>
         <v>38496.422680412375</v>
       </c>
+      <c r="AU14">
+        <v>138936.5</v>
+      </c>
+      <c r="AV14">
+        <v>28910</v>
+      </c>
+      <c r="AW14">
+        <v>76408</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>128962</v>
+      </c>
       <c r="AZ14" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>373216.5</v>
+      </c>
+      <c r="BA14">
+        <v>3.7</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>3</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
       </c>
       <c r="BF14">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG14" s="5" t="e">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BG14" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH14" s="5" t="e">
+        <v>37550.405405405407</v>
+      </c>
+      <c r="BH14" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI14" s="5" t="e">
+        <v>28910</v>
+      </c>
+      <c r="BI14" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>25469.333333333332</v>
       </c>
       <c r="BJ14" s="5" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK14" s="5" t="e">
+      <c r="BK14" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL14" s="5" t="e">
+        <v>64481</v>
+      </c>
+      <c r="BL14" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>38475.927835051552</v>
       </c>
       <c r="BM14" s="5">
         <v>16.367153024673399</v>
@@ -4679,32 +5603,47 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="CE14" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>37546.135135135133</v>
       </c>
       <c r="CF14" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>28910</v>
       </c>
       <c r="CG14" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>25484.666666666668</v>
       </c>
       <c r="CH14" s="5" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI14" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>64481</v>
       </c>
       <c r="CJ14" s="13">
         <f t="shared" si="38"/>
         <v>38479.041237113408</v>
       </c>
+      <c r="CK14">
+        <v>15.9465914011001</v>
+      </c>
+      <c r="CL14">
+        <v>1.4991905927658</v>
+      </c>
+      <c r="CM14">
+        <v>12.905802202224701</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>9.9166703224182093</v>
+      </c>
       <c r="CP14" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>40.268254518508812</v>
       </c>
       <c r="CQ14">
         <v>24418</v>
@@ -4719,11 +5658,11 @@
         <v>0</v>
       </c>
       <c r="CU14">
-        <v>272668.3</v>
+        <v>274644.40000000002</v>
       </c>
       <c r="CV14" s="3">
-        <f>SUM(CQ14:CU14)</f>
-        <v>326195.3</v>
+        <f t="shared" si="40"/>
+        <v>328171.40000000002</v>
       </c>
       <c r="CW14">
         <v>1</v>
@@ -4738,54 +5677,54 @@
         <v>0</v>
       </c>
       <c r="DA14">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="DB14">
         <f t="shared" si="41"/>
-        <v>8.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="DC14" s="5">
-        <f>CQ14/CW14</f>
+        <f t="shared" ref="DC14:DC15" si="60">CQ14/CW14</f>
         <v>24418</v>
       </c>
       <c r="DD14" s="5" t="e">
-        <f>CR14/CX14</f>
+        <f t="shared" ref="DD14:DD15" si="61">CR14/CX14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DE14" s="5">
-        <f>CS14/CY14</f>
+        <f t="shared" ref="DE14:DE15" si="62">CS14/CY14</f>
         <v>14554.5</v>
       </c>
       <c r="DF14" s="5" t="e">
-        <f>CT14/CZ14</f>
+        <f t="shared" ref="DF14:DF15" si="63">CT14/CZ14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DG14" s="5">
-        <f>CU14/DA14</f>
-        <v>48690.767857142855</v>
+        <f t="shared" ref="DG14:DG15" si="64">CU14/DA14</f>
+        <v>52816.230769230773</v>
       </c>
       <c r="DH14" s="4">
-        <f t="shared" ref="DH14:DH15" si="59">CV14/DB14</f>
-        <v>37929.686046511626</v>
-      </c>
-      <c r="DI14">
-        <v>2.2271745443344102</v>
+        <f t="shared" ref="DH14:DH15" si="65">CV14/DB14</f>
+        <v>40020.902439024394</v>
+      </c>
+      <c r="DI14" s="5">
+        <v>2.1218702077865599</v>
       </c>
       <c r="DJ14">
         <v>0</v>
       </c>
       <c r="DK14">
-        <v>5.7265448570251403</v>
+        <v>5.7092997789382904</v>
       </c>
       <c r="DL14">
         <v>0</v>
       </c>
       <c r="DM14">
-        <v>67.527369379997197</v>
+        <v>68.005332326889004</v>
       </c>
       <c r="DN14" s="3">
         <f t="shared" si="43"/>
-        <v>75.481088781356746</v>
+        <v>75.836502313613849</v>
       </c>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.25">
@@ -4841,23 +5780,23 @@
         <v>10.9</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" ref="Q15" si="60">E15/K15</f>
+        <f t="shared" ref="Q15" si="66">E15/K15</f>
         <v>32574.333333333332</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" ref="R15" si="61">F15/L15</f>
+        <f t="shared" ref="R15" si="67">F15/L15</f>
         <v>24472</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" ref="S15" si="62">G15/M15</f>
+        <f t="shared" ref="S15" si="68">G15/M15</f>
         <v>40438</v>
       </c>
       <c r="T15" s="5" t="e">
-        <f t="shared" ref="T15" si="63">H15/N15</f>
+        <f t="shared" ref="T15" si="69">H15/N15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" ref="U15" si="64">I15/O15</f>
+        <f t="shared" ref="U15" si="70">I15/O15</f>
         <v>35812.333333333336</v>
       </c>
       <c r="V15" s="3">
@@ -4945,37 +5884,67 @@
         <f t="shared" si="21"/>
         <v>33374.727272727272</v>
       </c>
+      <c r="AU15">
+        <v>66393</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>162471</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>122710.7</v>
+      </c>
       <c r="AZ15" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>351574.7</v>
+      </c>
+      <c r="BA15">
+        <v>4</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>4.2</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
       </c>
       <c r="BF15">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BG15" s="5" t="e">
+        <v>11.2</v>
+      </c>
+      <c r="BG15" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>16598.25</v>
       </c>
       <c r="BH15" s="5" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI15" s="5" t="e">
+      <c r="BI15" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>38683.571428571428</v>
       </c>
       <c r="BJ15" s="5" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK15" s="5" t="e">
+      <c r="BK15" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL15" s="5" t="e">
+        <v>40903.566666666666</v>
+      </c>
+      <c r="BL15" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>31390.598214285717</v>
       </c>
       <c r="BM15">
         <v>5.9128274440765303</v>
@@ -5035,32 +6004,47 @@
         <v>12.1</v>
       </c>
       <c r="CE15" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>16598.25</v>
       </c>
       <c r="CF15" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>36447</v>
       </c>
       <c r="CG15" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>28763</v>
       </c>
       <c r="CH15" s="5" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI15" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>42986.548387096773</v>
       </c>
       <c r="CJ15" s="13">
         <f t="shared" si="38"/>
         <v>29020.685950413223</v>
       </c>
+      <c r="CK15">
+        <v>5.9009680986404396</v>
+      </c>
+      <c r="CL15">
+        <v>2.8369066953658999</v>
+      </c>
+      <c r="CM15">
+        <v>16.4314507007598</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>11.6557870864868</v>
+      </c>
       <c r="CP15" s="3">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>36.825112581252938</v>
       </c>
       <c r="CQ15">
         <v>34783</v>
@@ -5069,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="CS15">
-        <v>303770.8</v>
+        <v>301185.2</v>
       </c>
       <c r="CT15">
         <v>0</v>
@@ -5078,8 +6062,8 @@
         <v>7706</v>
       </c>
       <c r="CV15" s="3">
-        <f>SUM(CQ15:CU15)</f>
-        <v>346259.8</v>
+        <f t="shared" si="40"/>
+        <v>343674.2</v>
       </c>
       <c r="CW15">
         <v>2</v>
@@ -5088,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="CY15">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="CZ15">
         <v>0</v>
@@ -5098,53 +6082,56 @@
       </c>
       <c r="DB15">
         <f t="shared" si="41"/>
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="DC15" s="5">
-        <f>CQ15/CW15</f>
+        <f t="shared" si="60"/>
         <v>17391.5</v>
       </c>
       <c r="DD15" s="5" t="e">
-        <f>CR15/CX15</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DE15" s="5">
-        <f>CS15/CY15</f>
-        <v>41050.108108108107</v>
+        <f t="shared" si="62"/>
+        <v>42420.450704225354</v>
       </c>
       <c r="DF15" s="5" t="e">
-        <f>CT15/CZ15</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG15" s="5">
-        <f>CU15/DA15</f>
+        <f t="shared" si="64"/>
         <v>7706</v>
       </c>
       <c r="DH15" s="4">
-        <f t="shared" si="59"/>
-        <v>33294.211538461539</v>
-      </c>
-      <c r="DI15">
-        <v>3.80596799850463</v>
+        <f t="shared" si="65"/>
+        <v>34027.148514851484</v>
+      </c>
+      <c r="DI15" s="5">
+        <v>3.6034900903701699</v>
       </c>
       <c r="DJ15">
         <v>0</v>
       </c>
       <c r="DK15">
-        <v>72.341544628143296</v>
+        <v>69.511962938308699</v>
       </c>
       <c r="DL15">
         <v>0</v>
       </c>
       <c r="DM15">
-        <v>1.2214313268661401</v>
+        <v>1.1865717649459799</v>
       </c>
       <c r="DN15" s="3">
         <f t="shared" si="43"/>
-        <v>77.368943953514062</v>
+        <v>74.302024793624852</v>
       </c>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="17"/>
@@ -5165,7 +6152,7 @@
       </c>
       <c r="AO16" s="5"/>
       <c r="AT16" s="3">
-        <f t="shared" ref="AT16:AT30" si="65">SUM(AO16:AS16)</f>
+        <f t="shared" ref="AT16:AT30" si="71">SUM(AO16:AS16)</f>
         <v>0</v>
       </c>
       <c r="BA16" s="5"/>
@@ -5181,7 +6168,10 @@
       <c r="DI16" s="5"/>
       <c r="DN16" s="3"/>
     </row>
-    <row r="17" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="17"/>
@@ -5202,7 +6192,7 @@
       </c>
       <c r="AO17" s="5"/>
       <c r="AT17" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA17" s="5"/>
@@ -5218,7 +6208,10 @@
       <c r="DI17" s="5"/>
       <c r="DN17" s="3"/>
     </row>
-    <row r="18" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="17"/>
@@ -5239,7 +6232,7 @@
       </c>
       <c r="AO18" s="5"/>
       <c r="AT18" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA18" s="5"/>
@@ -5261,7 +6254,10 @@
       <c r="DI18" s="5"/>
       <c r="DN18" s="3"/>
     </row>
-    <row r="19" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="17"/>
@@ -5282,7 +6278,7 @@
       </c>
       <c r="AO19" s="5"/>
       <c r="AT19" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA19" s="5"/>
@@ -5304,7 +6300,10 @@
       <c r="DI19" s="5"/>
       <c r="DN19" s="3"/>
     </row>
-    <row r="20" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="17"/>
@@ -5325,7 +6324,7 @@
       </c>
       <c r="AO20" s="5"/>
       <c r="AT20" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA20" s="5"/>
@@ -5347,7 +6346,10 @@
       <c r="DI20" s="5"/>
       <c r="DN20" s="3"/>
     </row>
-    <row r="21" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="17"/>
@@ -5396,7 +6398,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
       <c r="AT21" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA21" s="5"/>
@@ -5418,7 +6420,10 @@
       <c r="DI21" s="5"/>
       <c r="DN21" s="3"/>
     </row>
-    <row r="22" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="17"/>
@@ -5467,7 +6472,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA22" s="5"/>
@@ -5489,7 +6494,10 @@
       <c r="DI22" s="5"/>
       <c r="DN22" s="3"/>
     </row>
-    <row r="23" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="17"/>
@@ -5538,7 +6546,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA23" s="5"/>
@@ -5560,7 +6568,10 @@
       <c r="DI23" s="5"/>
       <c r="DN23" s="3"/>
     </row>
-    <row r="24" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="17"/>
@@ -5609,7 +6620,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA24" s="5"/>
@@ -5631,7 +6642,10 @@
       <c r="DI24" s="5"/>
       <c r="DN24" s="3"/>
     </row>
-    <row r="25" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="17"/>
@@ -5680,7 +6694,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA25" s="5"/>
@@ -5702,7 +6716,10 @@
       <c r="DI25" s="5"/>
       <c r="DN25" s="3"/>
     </row>
-    <row r="26" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="17"/>
@@ -5751,7 +6768,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA26" s="5"/>
@@ -5773,7 +6790,10 @@
       <c r="DI26" s="5"/>
       <c r="DN26" s="3"/>
     </row>
-    <row r="27" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="17"/>
@@ -5822,7 +6842,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA27" s="5"/>
@@ -5844,7 +6864,10 @@
       <c r="DI27" s="5"/>
       <c r="DN27" s="3"/>
     </row>
-    <row r="28" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="17"/>
@@ -5893,7 +6916,7 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA28" s="5"/>
@@ -5909,7 +6932,10 @@
       <c r="DI28" s="5"/>
       <c r="DN28" s="3"/>
     </row>
-    <row r="29" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="17"/>
@@ -5958,7 +6984,7 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA29" s="5"/>
@@ -5974,7 +7000,10 @@
       <c r="DI29" s="5"/>
       <c r="DN29" s="3"/>
     </row>
-    <row r="30" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="17"/>
@@ -6023,7 +7052,7 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA30" s="5"/>
@@ -6039,7 +7068,10 @@
       <c r="DI30" s="5"/>
       <c r="DN30" s="3"/>
     </row>
-    <row r="31" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -6089,7 +7121,7 @@
       <c r="DI31" s="5"/>
       <c r="DN31" s="3"/>
     </row>
-    <row r="32" spans="2:118" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -7017,6 +8049,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BM1:BR1"/>
+    <mergeCell ref="BY1:CD1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG1:BL1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="DC1:DH1"/>
     <mergeCell ref="DI1:DN1"/>
     <mergeCell ref="CE1:CJ1"/>
@@ -7024,18 +8068,6 @@
     <mergeCell ref="BS1:BX1"/>
     <mergeCell ref="CQ1:CV1"/>
     <mergeCell ref="CW1:DB1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="BM1:BR1"/>
-    <mergeCell ref="BY1:CD1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AO1:AT1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG1:BL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Results-Goo - Final.xlsx
+++ b/Results-Goo - Final.xlsx
@@ -404,6 +404,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,17 +422,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,28 +711,33 @@
   <dimension ref="A1:DX59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:CA1048576"/>
+      <selection sqref="A1:DF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
-    <col min="12" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="5" customWidth="1"/>
-    <col min="18" max="28" width="9.140625" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="23" customWidth="1"/>
-    <col min="30" max="53" width="9.140625" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" style="23" customWidth="1"/>
-    <col min="55" max="78" width="9.140625" customWidth="1"/>
-    <col min="79" max="79" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="23" hidden="1" customWidth="1"/>
+    <col min="30" max="40" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" customWidth="1"/>
+    <col min="42" max="53" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="9.140625" style="23" hidden="1" customWidth="1"/>
+    <col min="55" max="59" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" customWidth="1"/>
+    <col min="61" max="78" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="9.140625" style="23" hidden="1" customWidth="1"/>
     <col min="80" max="103" width="9.140625" style="31" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="9.140625" style="23" hidden="1" customWidth="1"/>
-    <col min="105" max="109" width="9.140625" customWidth="1"/>
+    <col min="105" max="109" width="9.140625" hidden="1" customWidth="1"/>
     <col min="111" max="128" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,170 +754,170 @@
       <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
       <c r="AC1" s="19"/>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
       <c r="BB1" s="19"/>
-      <c r="BC1" s="35" t="s">
+      <c r="BC1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="35" t="s">
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="35" t="s">
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="35" t="s">
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
+      <c r="BU1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
       <c r="CA1" s="19"/>
-      <c r="CB1" s="37" t="s">
+      <c r="CB1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="37" t="s">
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CE1" s="40"/>
+      <c r="CF1" s="40"/>
+      <c r="CG1" s="41"/>
+      <c r="CH1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="CI1" s="38"/>
-      <c r="CJ1" s="38"/>
-      <c r="CK1" s="38"/>
-      <c r="CL1" s="38"/>
-      <c r="CM1" s="38"/>
-      <c r="CN1" s="37" t="s">
+      <c r="CI1" s="40"/>
+      <c r="CJ1" s="40"/>
+      <c r="CK1" s="40"/>
+      <c r="CL1" s="40"/>
+      <c r="CM1" s="40"/>
+      <c r="CN1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="CO1" s="38"/>
-      <c r="CP1" s="38"/>
-      <c r="CQ1" s="38"/>
-      <c r="CR1" s="38"/>
-      <c r="CS1" s="38"/>
-      <c r="CT1" s="37" t="s">
+      <c r="CO1" s="40"/>
+      <c r="CP1" s="40"/>
+      <c r="CQ1" s="40"/>
+      <c r="CR1" s="40"/>
+      <c r="CS1" s="40"/>
+      <c r="CT1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="CU1" s="38"/>
-      <c r="CV1" s="38"/>
-      <c r="CW1" s="38"/>
-      <c r="CX1" s="38"/>
-      <c r="CY1" s="38"/>
+      <c r="CU1" s="40"/>
+      <c r="CV1" s="40"/>
+      <c r="CW1" s="40"/>
+      <c r="CX1" s="40"/>
+      <c r="CY1" s="40"/>
       <c r="CZ1" s="19"/>
-      <c r="DA1" s="35" t="s">
+      <c r="DA1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="DB1" s="36"/>
-      <c r="DC1" s="36"/>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="39"/>
-      <c r="DG1" s="35" t="s">
+      <c r="DB1" s="38"/>
+      <c r="DC1" s="38"/>
+      <c r="DD1" s="38"/>
+      <c r="DE1" s="38"/>
+      <c r="DF1" s="42"/>
+      <c r="DG1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="36"/>
-      <c r="DJ1" s="36"/>
-      <c r="DK1" s="36"/>
-      <c r="DL1" s="36"/>
-      <c r="DM1" s="35" t="s">
+      <c r="DH1" s="38"/>
+      <c r="DI1" s="38"/>
+      <c r="DJ1" s="38"/>
+      <c r="DK1" s="38"/>
+      <c r="DL1" s="38"/>
+      <c r="DM1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="DN1" s="36"/>
-      <c r="DO1" s="36"/>
-      <c r="DP1" s="36"/>
-      <c r="DQ1" s="36"/>
-      <c r="DR1" s="36"/>
-      <c r="DS1" s="35" t="s">
+      <c r="DN1" s="38"/>
+      <c r="DO1" s="38"/>
+      <c r="DP1" s="38"/>
+      <c r="DQ1" s="38"/>
+      <c r="DR1" s="38"/>
+      <c r="DS1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="DT1" s="36"/>
-      <c r="DU1" s="36"/>
-      <c r="DV1" s="36"/>
-      <c r="DW1" s="36"/>
-      <c r="DX1" s="36"/>
+      <c r="DT1" s="38"/>
+      <c r="DU1" s="38"/>
+      <c r="DV1" s="38"/>
+      <c r="DW1" s="38"/>
+      <c r="DX1" s="38"/>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1504,11 +1509,11 @@
         <v>37649</v>
       </c>
       <c r="AA4" s="4">
-        <f>I4/U4</f>
+        <f t="shared" ref="AA4:AA14" si="5">I4/U4</f>
         <v>37115.4</v>
       </c>
       <c r="AB4" s="3">
-        <f t="shared" ref="AB4:AB15" si="5">J4/V4</f>
+        <f t="shared" ref="AB4:AB15" si="6">J4/V4</f>
         <v>31225.838461538464</v>
       </c>
       <c r="AC4" s="22"/>
@@ -1528,7 +1533,7 @@
         <v>7.1618249416351301</v>
       </c>
       <c r="AI4" s="13">
-        <f>SUM(AD4:AH4)</f>
+        <f t="shared" ref="AI4:AI15" si="7">SUM(AD4:AH4)</f>
         <v>38.794469642639058</v>
       </c>
       <c r="AJ4">
@@ -1547,7 +1552,7 @@
         <v>114938</v>
       </c>
       <c r="AO4" s="13">
-        <f>SUM(AJ4:AN4)</f>
+        <f t="shared" ref="AO4:AO15" si="8">SUM(AJ4:AN4)</f>
         <v>378480.4</v>
       </c>
       <c r="AP4">
@@ -1566,31 +1571,31 @@
         <v>3</v>
       </c>
       <c r="AU4" s="13">
-        <f>SUM(AP4:AT4)</f>
+        <f t="shared" ref="AU4:AU15" si="9">SUM(AP4:AT4)</f>
         <v>13.4</v>
       </c>
       <c r="AV4">
-        <f>(AJ4/AP4)</f>
+        <f t="shared" ref="AV4:AV15" si="10">(AJ4/AP4)</f>
         <v>20780.666666666668</v>
       </c>
       <c r="AW4">
-        <f t="shared" ref="AW4:AZ4" si="6">(AK4/AQ4)</f>
+        <f t="shared" ref="AW4:AZ4" si="11">(AK4/AQ4)</f>
         <v>16477</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35683.045454545449</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>11241</v>
       </c>
       <c r="AZ4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>38312.666666666664</v>
       </c>
       <c r="BA4" s="3">
-        <f>(AO4/AU4)</f>
+        <f t="shared" ref="BA4:BA15" si="12">(AO4/AU4)</f>
         <v>28244.805970149253</v>
       </c>
       <c r="BB4" s="22"/>
@@ -1637,19 +1642,19 @@
         <v>28675.666666666668</v>
       </c>
       <c r="BP4">
-        <f t="shared" ref="BP4:BS4" si="7">(BD4/BJ4)</f>
+        <f t="shared" ref="BP4:BS4" si="13">(BD4/BJ4)</f>
         <v>16477</v>
       </c>
       <c r="BQ4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>29923.325000000001</v>
       </c>
       <c r="BR4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>32156.499999999996</v>
       </c>
       <c r="BT4" s="13">
@@ -1719,19 +1724,19 @@
         <v>20780.666666666668</v>
       </c>
       <c r="CO4" s="25">
-        <f t="shared" ref="CO4:CR4" si="8">CC4/CI4</f>
+        <f t="shared" ref="CO4:CR4" si="14">CC4/CI4</f>
         <v>16477</v>
       </c>
       <c r="CP4" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>34036.695652173912</v>
       </c>
       <c r="CQ4" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>11241</v>
       </c>
       <c r="CR4" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>38312.666666666664</v>
       </c>
       <c r="CS4" s="25">
@@ -1782,27 +1787,27 @@
         <v>12.1</v>
       </c>
       <c r="DM4" s="5">
-        <f t="shared" ref="DM4:DM8" si="9">DA4/DG4</f>
+        <f t="shared" ref="DM4:DM8" si="15">DA4/DG4</f>
         <v>32016</v>
       </c>
       <c r="DN4" s="5">
-        <f t="shared" ref="DN4:DN8" si="10">DB4/DH4</f>
+        <f t="shared" ref="DN4:DN8" si="16">DB4/DH4</f>
         <v>6615</v>
       </c>
       <c r="DO4" s="5">
-        <f t="shared" ref="DO4:DO8" si="11">DC4/DI4</f>
+        <f t="shared" ref="DO4:DO8" si="17">DC4/DI4</f>
         <v>39014.1975308642</v>
       </c>
       <c r="DP4" s="5">
-        <f t="shared" ref="DP4:DP8" si="12">DD4/DJ4</f>
+        <f t="shared" ref="DP4:DP8" si="18">DD4/DJ4</f>
         <v>11241</v>
       </c>
       <c r="DQ4" s="5">
-        <f t="shared" ref="DQ4:DQ8" si="13">DE4/DK4</f>
+        <f t="shared" ref="DQ4:DQ8" si="19">DE4/DK4</f>
         <v>6837</v>
       </c>
       <c r="DR4" s="4">
-        <f t="shared" ref="DR4:DR8" si="14">DF4/DL4</f>
+        <f t="shared" ref="DR4:DR8" si="20">DF4/DL4</f>
         <v>30803.636363636364</v>
       </c>
       <c r="DS4" s="1">
@@ -1836,7 +1841,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" ref="D5:D15" si="15">(B5/C5)</f>
+        <f t="shared" ref="D5:D15" si="21">(B5/C5)</f>
         <v>15483.6</v>
       </c>
       <c r="E5">
@@ -1855,7 +1860,7 @@
         <v>99220</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J15" si="16">SUM(E5:I5)</f>
+        <f t="shared" ref="J5:J15" si="22">SUM(E5:I5)</f>
         <v>374384.5</v>
       </c>
       <c r="K5" s="5">
@@ -1874,7 +1879,7 @@
         <v>7.6544006586074804</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P15" si="17">SUM(K5:O5)</f>
+        <f t="shared" ref="P5:P15" si="23">SUM(K5:O5)</f>
         <v>38.426897764205883</v>
       </c>
       <c r="Q5" s="5">
@@ -1913,11 +1918,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA5" s="4">
-        <f>I5/U5</f>
+        <f t="shared" si="5"/>
         <v>33073.333333333336</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29950.76</v>
       </c>
       <c r="AC5" s="22"/>
@@ -1937,7 +1942,7 @@
         <v>8.2342022180557208</v>
       </c>
       <c r="AI5" s="3">
-        <f>SUM(AD5:AH5)</f>
+        <f t="shared" si="7"/>
         <v>35.703785705566304</v>
       </c>
       <c r="AJ5">
@@ -1956,7 +1961,7 @@
         <v>92734</v>
       </c>
       <c r="AO5" s="3">
-        <f>SUM(AJ5:AN5)</f>
+        <f t="shared" si="8"/>
         <v>369570</v>
       </c>
       <c r="AP5">
@@ -1975,31 +1980,31 @@
         <v>3</v>
       </c>
       <c r="AU5" s="3">
-        <f>SUM(AP5:AT5)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AV5">
-        <f>(AJ5/AP5)</f>
+        <f t="shared" si="10"/>
         <v>29267</v>
       </c>
       <c r="AW5">
-        <f>(AK5/AQ5)</f>
+        <f t="shared" ref="AW5:AW15" si="24">(AK5/AQ5)</f>
         <v>33745.5</v>
       </c>
       <c r="AX5">
-        <f>(AL5/AR5)</f>
+        <f t="shared" ref="AX5:AX15" si="25">(AL5/AR5)</f>
         <v>40514.666666666664</v>
       </c>
       <c r="AY5" t="e">
-        <f>(AM5/AS5)</f>
+        <f t="shared" ref="AY5:AY15" si="26">(AM5/AS5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ5">
-        <f>(AN5/AT5)</f>
+        <f t="shared" ref="AZ5:AZ15" si="27">(AN5/AT5)</f>
         <v>30911.333333333332</v>
       </c>
       <c r="BA5" s="3">
-        <f>(AO5/AU5)</f>
+        <f t="shared" si="12"/>
         <v>33597.272727272728</v>
       </c>
       <c r="BB5" s="22"/>
@@ -2019,7 +2024,7 @@
         <v>78985</v>
       </c>
       <c r="BH5" s="3">
-        <f t="shared" ref="BH5:BH8" si="18">SUM(BC5:BG5)</f>
+        <f t="shared" ref="BH5:BH8" si="28">SUM(BC5:BG5)</f>
         <v>371469.7</v>
       </c>
       <c r="BI5">
@@ -2038,31 +2043,31 @@
         <v>4</v>
       </c>
       <c r="BN5">
-        <f t="shared" ref="BN5:BN8" si="19">SUM(BI5:BM5)</f>
+        <f t="shared" ref="BN5:BN8" si="29">SUM(BI5:BM5)</f>
         <v>12.1</v>
       </c>
       <c r="BO5" s="5">
-        <f t="shared" ref="BO5:BO8" si="20">(BC5/BI5)</f>
+        <f t="shared" ref="BO5:BO8" si="30">(BC5/BI5)</f>
         <v>29267</v>
       </c>
       <c r="BP5">
-        <f t="shared" ref="BP5:BP8" si="21">(BD5/BJ5)</f>
+        <f t="shared" ref="BP5:BP8" si="31">(BD5/BJ5)</f>
         <v>54693</v>
       </c>
       <c r="BQ5">
-        <f t="shared" ref="BQ5:BQ8" si="22">(BE5/BK5)</f>
+        <f t="shared" ref="BQ5:BQ8" si="32">(BE5/BK5)</f>
         <v>36583.097560975613</v>
       </c>
       <c r="BR5" t="e">
-        <f t="shared" ref="BR5:BR8" si="23">(BF5/BL5)</f>
+        <f t="shared" ref="BR5:BR8" si="33">(BF5/BL5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BS5">
-        <f t="shared" ref="BS5:BS8" si="24">(BG5/BM5)</f>
+        <f t="shared" ref="BS5:BS8" si="34">(BG5/BM5)</f>
         <v>19746.25</v>
       </c>
       <c r="BT5" s="3">
-        <f t="shared" ref="BT5:BT8" si="25">(BH5/BN5)</f>
+        <f t="shared" ref="BT5:BT8" si="35">(BH5/BN5)</f>
         <v>30699.975206611573</v>
       </c>
       <c r="BU5">
@@ -2081,7 +2086,7 @@
         <v>7.4826619625091499</v>
       </c>
       <c r="BZ5" s="3">
-        <f t="shared" ref="BZ5:BZ8" si="26">SUM(BU5:BY5)</f>
+        <f t="shared" ref="BZ5:BZ8" si="36">SUM(BU5:BY5)</f>
         <v>34.026815438270482</v>
       </c>
       <c r="CA5" s="22"/>
@@ -2101,7 +2106,7 @@
         <v>104948</v>
       </c>
       <c r="CG5" s="26">
-        <f t="shared" ref="CG5:CG15" si="27">SUM(CB5:CF5)</f>
+        <f t="shared" ref="CG5:CG15" si="37">SUM(CB5:CF5)</f>
         <v>365431</v>
       </c>
       <c r="CH5" s="31">
@@ -2120,35 +2125,35 @@
         <v>3</v>
       </c>
       <c r="CM5" s="31">
-        <f t="shared" ref="CM5:CM15" si="28">SUM(CH5:CL5)</f>
+        <f t="shared" ref="CM5:CM15" si="38">SUM(CH5:CL5)</f>
         <v>12</v>
       </c>
       <c r="CN5" s="24">
-        <f t="shared" ref="CN5:CN8" si="29">CB5/CH5</f>
+        <f t="shared" ref="CN5:CN8" si="39">CB5/CH5</f>
         <v>29267</v>
       </c>
       <c r="CO5" s="25">
-        <f t="shared" ref="CO5:CO8" si="30">CC5/CI5</f>
+        <f t="shared" ref="CO5:CO8" si="40">CC5/CI5</f>
         <v>33745.5</v>
       </c>
       <c r="CP5" s="25">
-        <f t="shared" ref="CP5:CP8" si="31">CD5/CJ5</f>
+        <f t="shared" ref="CP5:CP8" si="41">CD5/CJ5</f>
         <v>26297.75</v>
       </c>
       <c r="CQ5" s="25" t="e">
-        <f t="shared" ref="CQ5:CQ8" si="32">CE5/CK5</f>
+        <f t="shared" ref="CQ5:CQ8" si="42">CE5/CK5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CR5" s="25">
-        <f t="shared" ref="CR5:CR8" si="33">CF5/CL5</f>
+        <f t="shared" ref="CR5:CR8" si="43">CF5/CL5</f>
         <v>34982.666666666664</v>
       </c>
       <c r="CS5" s="25">
-        <f t="shared" ref="CS5:CS15" si="34">CG5/CM5</f>
+        <f t="shared" ref="CS5:CS15" si="44">CG5/CM5</f>
         <v>30452.583333333332</v>
       </c>
       <c r="CY5" s="26">
-        <f t="shared" ref="CY5:CY15" si="35">SUM(CT5:CX5)</f>
+        <f t="shared" ref="CY5:CY15" si="45">SUM(CT5:CX5)</f>
         <v>0</v>
       </c>
       <c r="CZ5" s="22"/>
@@ -2168,7 +2173,7 @@
         <v>15474</v>
       </c>
       <c r="DF5" s="3">
-        <f t="shared" ref="DF5" si="36">SUM(DA5:DE5)</f>
+        <f t="shared" ref="DF5" si="46">SUM(DA5:DE5)</f>
         <v>338385.3</v>
       </c>
       <c r="DG5">
@@ -2187,31 +2192,31 @@
         <v>1</v>
       </c>
       <c r="DL5">
-        <f t="shared" ref="DL5:DL8" si="37">SUM(DG5:DK5)</f>
+        <f t="shared" ref="DL5:DL8" si="47">SUM(DG5:DK5)</f>
         <v>11</v>
       </c>
       <c r="DM5" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>16146.333333333334</v>
       </c>
       <c r="DN5" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>47913.659999999996</v>
       </c>
       <c r="DO5" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>17452</v>
       </c>
       <c r="DP5" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ5" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15474</v>
       </c>
       <c r="DR5" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>30762.3</v>
       </c>
       <c r="DS5" s="5">
@@ -2230,7 +2235,7 @@
         <v>1.05886371135711</v>
       </c>
       <c r="DX5" s="3">
-        <f t="shared" ref="DX5:DX8" si="38">SUM(DS5:DW5)</f>
+        <f t="shared" ref="DX5:DX8" si="48">SUM(DS5:DW5)</f>
         <v>54.374529600143411</v>
       </c>
     </row>
@@ -2245,7 +2250,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>15066.725</v>
       </c>
       <c r="E6">
@@ -2264,7 +2269,7 @@
         <v>113354</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>338396.9</v>
       </c>
       <c r="K6" s="5">
@@ -2283,7 +2288,7 @@
         <v>8.7303065061569196</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>30.250751662254309</v>
       </c>
       <c r="Q6" s="5">
@@ -2322,11 +2327,11 @@
         <v>21639</v>
       </c>
       <c r="AA6" s="4">
-        <f>I6/U6</f>
+        <f t="shared" si="5"/>
         <v>37784.666666666664</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33839.69</v>
       </c>
       <c r="AC6" s="22"/>
@@ -2346,7 +2351,7 @@
         <v>2.46813089847564</v>
       </c>
       <c r="AI6" s="3">
-        <f>SUM(AD6:AH6)</f>
+        <f t="shared" si="7"/>
         <v>40.581182432174593</v>
       </c>
       <c r="AJ6">
@@ -2365,7 +2370,7 @@
         <v>48347</v>
       </c>
       <c r="AO6" s="3">
-        <f>SUM(AJ6:AN6)</f>
+        <f t="shared" si="8"/>
         <v>354416.3</v>
       </c>
       <c r="AP6">
@@ -2384,31 +2389,31 @@
         <v>2</v>
       </c>
       <c r="AU6" s="3">
-        <f>SUM(AP6:AT6)</f>
+        <f t="shared" si="9"/>
         <v>11.5</v>
       </c>
       <c r="AV6">
-        <f>(AJ6/AP6)</f>
+        <f t="shared" si="10"/>
         <v>32763.178571428572</v>
       </c>
       <c r="AW6">
-        <f>(AK6/AQ6)</f>
+        <f t="shared" si="24"/>
         <v>24594</v>
       </c>
       <c r="AX6">
-        <f>(AL6/AR6)</f>
+        <f t="shared" si="25"/>
         <v>38698.216216216213</v>
       </c>
       <c r="AY6">
-        <f>(AM6/AS6)</f>
+        <f t="shared" si="26"/>
         <v>23277.5</v>
       </c>
       <c r="AZ6">
-        <f>(AN6/AT6)</f>
+        <f t="shared" si="27"/>
         <v>24173.5</v>
       </c>
       <c r="BA6" s="3">
-        <f>(AO6/AU6)</f>
+        <f t="shared" si="12"/>
         <v>30818.808695652173</v>
       </c>
       <c r="BB6" s="22"/>
@@ -2428,7 +2433,7 @@
         <v>30044</v>
       </c>
       <c r="BH6" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>312160.8</v>
       </c>
       <c r="BI6">
@@ -2447,31 +2452,31 @@
         <v>1</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>9.4</v>
       </c>
       <c r="BO6" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>32898.5</v>
       </c>
       <c r="BP6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>37188.851851851847</v>
       </c>
       <c r="BR6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>15500</v>
       </c>
       <c r="BS6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>30044</v>
       </c>
       <c r="BT6" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>33208.595744680846</v>
       </c>
       <c r="BU6">
@@ -2490,7 +2495,7 @@
         <v>2.7034211397171002</v>
       </c>
       <c r="BZ6" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>55.560912418365447</v>
       </c>
       <c r="CA6" s="22"/>
@@ -2510,7 +2515,7 @@
         <v>48347</v>
       </c>
       <c r="CG6" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>354351.3</v>
       </c>
       <c r="CH6" s="31">
@@ -2529,35 +2534,35 @@
         <v>2</v>
       </c>
       <c r="CM6" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>11.2</v>
       </c>
       <c r="CN6" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>36805.479999999996</v>
       </c>
       <c r="CO6" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>24594</v>
       </c>
       <c r="CP6" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>38605.83783783784</v>
       </c>
       <c r="CQ6" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>23277.5</v>
       </c>
       <c r="CR6" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>24173.5</v>
       </c>
       <c r="CS6" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>31638.508928571431</v>
       </c>
       <c r="CY6" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ6" s="22"/>
@@ -2577,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="DF6" s="3">
-        <f>SUM(DA6:DE6)</f>
+        <f t="shared" ref="DF6:DF15" si="49">SUM(DA6:DE6)</f>
         <v>312518</v>
       </c>
       <c r="DG6">
@@ -2596,31 +2601,31 @@
         <v>0</v>
       </c>
       <c r="DL6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>9.1</v>
       </c>
       <c r="DM6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>15088</v>
       </c>
       <c r="DN6" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43591.475409836065</v>
       </c>
       <c r="DP6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>16434</v>
       </c>
       <c r="DQ6" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR6" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>34342.637362637361</v>
       </c>
       <c r="DS6" s="5">
@@ -2639,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="DX6" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>76.00931975841516</v>
       </c>
     </row>
@@ -2654,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16902.224999999999</v>
       </c>
       <c r="E7">
@@ -2673,7 +2678,7 @@
         <v>91019</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>374741.9</v>
       </c>
       <c r="K7" s="5">
@@ -2692,7 +2697,7 @@
         <v>5.6941285371780399</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>30.455565214157055</v>
       </c>
       <c r="Q7" s="5">
@@ -2731,11 +2736,11 @@
         <v>15541</v>
       </c>
       <c r="AA7" s="4">
-        <f>I7/U7</f>
+        <f t="shared" si="5"/>
         <v>45509.5</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31228.491666666669</v>
       </c>
       <c r="AC7" s="22"/>
@@ -2755,7 +2760,7 @@
         <v>5.1830036878585801</v>
       </c>
       <c r="AI7" s="3">
-        <f>SUM(AD7:AH7)</f>
+        <f t="shared" si="7"/>
         <v>36.982171201705832</v>
       </c>
       <c r="AJ7">
@@ -2774,7 +2779,7 @@
         <v>115098</v>
       </c>
       <c r="AO7" s="3">
-        <f>SUM(AJ7:AN7)</f>
+        <f t="shared" si="8"/>
         <v>386313.3</v>
       </c>
       <c r="AP7">
@@ -2793,31 +2798,31 @@
         <v>2</v>
       </c>
       <c r="AU7" s="3">
-        <f>SUM(AP7:AT7)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="AV7">
-        <f>(AJ7/AP7)</f>
+        <f t="shared" si="10"/>
         <v>56328</v>
       </c>
       <c r="AW7">
-        <f>(AK7/AQ7)</f>
+        <f t="shared" si="24"/>
         <v>22175</v>
       </c>
       <c r="AX7">
-        <f>(AL7/AR7)</f>
+        <f t="shared" si="25"/>
         <v>40281.1</v>
       </c>
       <c r="AY7">
-        <f>(AM7/AS7)</f>
+        <f t="shared" si="26"/>
         <v>15541</v>
       </c>
       <c r="AZ7">
-        <f>(AN7/AT7)</f>
+        <f t="shared" si="27"/>
         <v>57549</v>
       </c>
       <c r="BA7" s="3">
-        <f>(AO7/AU7)</f>
+        <f t="shared" si="12"/>
         <v>42923.7</v>
       </c>
       <c r="BB7" s="22"/>
@@ -2837,7 +2842,7 @@
         <v>87523</v>
       </c>
       <c r="BH7" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>371906</v>
       </c>
       <c r="BI7">
@@ -2856,31 +2861,31 @@
         <v>2</v>
       </c>
       <c r="BN7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="BO7" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>36273</v>
       </c>
       <c r="BP7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>22175</v>
       </c>
       <c r="BQ7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>40353.617021276594</v>
       </c>
       <c r="BR7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>43761.5</v>
       </c>
       <c r="BT7" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>38340.824742268043</v>
       </c>
       <c r="BU7">
@@ -2899,7 +2904,7 @@
         <v>4.19694230556488</v>
       </c>
       <c r="BZ7" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>52.003402709960895</v>
       </c>
       <c r="CA7" s="22"/>
@@ -2919,7 +2924,7 @@
         <v>115098</v>
       </c>
       <c r="CG7" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>386175.6</v>
       </c>
       <c r="CH7" s="31">
@@ -2938,35 +2943,35 @@
         <v>2</v>
       </c>
       <c r="CM7" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="CN7" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>56328</v>
       </c>
       <c r="CO7" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>22175</v>
       </c>
       <c r="CP7" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>40235.200000000004</v>
       </c>
       <c r="CQ7" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>15541</v>
       </c>
       <c r="CR7" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>57549</v>
       </c>
       <c r="CS7" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>42908.399999999994</v>
       </c>
       <c r="CY7" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ7" s="22"/>
@@ -2986,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="DF7" s="3">
-        <f>SUM(DA7:DE7)</f>
+        <f t="shared" si="49"/>
         <v>345355.4</v>
       </c>
       <c r="DG7">
@@ -3005,31 +3010,31 @@
         <v>0</v>
       </c>
       <c r="DL7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="DM7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>29958</v>
       </c>
       <c r="DN7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>54548.754716981137</v>
       </c>
       <c r="DO7" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>13144.5</v>
       </c>
       <c r="DP7" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ7" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR7" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>41609.084337349399</v>
       </c>
       <c r="DS7" s="5">
@@ -3048,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="DX7" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>59.239297628402667</v>
       </c>
     </row>
@@ -3063,7 +3068,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16688.974999999999</v>
       </c>
       <c r="E8">
@@ -3082,7 +3087,7 @@
         <v>97287</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>398995.6</v>
       </c>
       <c r="K8" s="5">
@@ -3101,7 +3106,7 @@
         <v>4.5184684753417903</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>33.824156713485557</v>
       </c>
       <c r="Q8" s="5">
@@ -3140,11 +3145,11 @@
         <v>13305</v>
       </c>
       <c r="AA8" s="4">
-        <f>I8/U8</f>
+        <f t="shared" si="5"/>
         <v>48643.5</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33249.633333333331</v>
       </c>
       <c r="AC8" s="22"/>
@@ -3164,7 +3169,7 @@
         <v>5.3553197145461997</v>
       </c>
       <c r="AI8" s="3">
-        <f>SUM(AD8:AH8)</f>
+        <f t="shared" si="7"/>
         <v>28.855096769332789</v>
       </c>
       <c r="AJ8">
@@ -3183,7 +3188,7 @@
         <v>111370</v>
       </c>
       <c r="AO8" s="3">
-        <f>SUM(AJ8:AN8)</f>
+        <f t="shared" si="8"/>
         <v>388546.2</v>
       </c>
       <c r="AP8">
@@ -3202,31 +3207,31 @@
         <v>3</v>
       </c>
       <c r="AU8" s="3">
-        <f>SUM(AP8:AT8)</f>
+        <f t="shared" si="9"/>
         <v>12.1</v>
       </c>
       <c r="AV8">
-        <f>(AJ8/AP8)</f>
+        <f t="shared" si="10"/>
         <v>22867.77419354839</v>
       </c>
       <c r="AW8">
-        <f>(AK8/AQ8)</f>
+        <f t="shared" si="24"/>
         <v>38004.5</v>
       </c>
       <c r="AX8">
-        <f>(AL8/AR8)</f>
+        <f t="shared" si="25"/>
         <v>38990.700000000004</v>
       </c>
       <c r="AY8">
-        <f>(AM8/AS8)</f>
+        <f t="shared" si="26"/>
         <v>13305</v>
       </c>
       <c r="AZ8">
-        <f>(AN8/AT8)</f>
+        <f t="shared" si="27"/>
         <v>37123.333333333336</v>
       </c>
       <c r="BA8" s="3">
-        <f>(AO8/AU8)</f>
+        <f t="shared" si="12"/>
         <v>32111.25619834711</v>
       </c>
       <c r="BB8" s="22"/>
@@ -3246,7 +3251,7 @@
         <v>88570</v>
       </c>
       <c r="BH8" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>380296.7</v>
       </c>
       <c r="BI8">
@@ -3265,31 +3270,31 @@
         <v>2</v>
       </c>
       <c r="BN8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>10.7</v>
       </c>
       <c r="BO8" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>23340.933333333334</v>
       </c>
       <c r="BP8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>37138</v>
       </c>
       <c r="BQ8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>39269.340425531911</v>
       </c>
       <c r="BR8" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>44285</v>
       </c>
       <c r="BT8" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>35541.747663551403</v>
       </c>
       <c r="BU8">
@@ -3308,7 +3313,7 @@
         <v>4.20380368232727</v>
       </c>
       <c r="BZ8" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>48.043896245956418</v>
       </c>
       <c r="CA8" s="22"/>
@@ -3328,7 +3333,7 @@
         <v>111370</v>
       </c>
       <c r="CG8" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>388059.7</v>
       </c>
       <c r="CH8" s="31">
@@ -3347,35 +3352,35 @@
         <v>3</v>
       </c>
       <c r="CM8" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>12.3</v>
       </c>
       <c r="CN8" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>21334.454545454544</v>
       </c>
       <c r="CO8" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>38004.5</v>
       </c>
       <c r="CP8" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>38990.666666666664</v>
       </c>
       <c r="CQ8" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>13305</v>
       </c>
       <c r="CR8" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>37123.333333333336</v>
       </c>
       <c r="CS8" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>31549.569105691055</v>
       </c>
       <c r="CY8" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ8" s="22"/>
@@ -3395,7 +3400,7 @@
         <v>7706</v>
       </c>
       <c r="DF8" s="3">
-        <f>SUM(DA8:DE8)</f>
+        <f t="shared" si="49"/>
         <v>340404.8</v>
       </c>
       <c r="DG8">
@@ -3414,31 +3419,31 @@
         <v>1</v>
       </c>
       <c r="DL8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>10.1</v>
       </c>
       <c r="DM8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>16476</v>
       </c>
       <c r="DN8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8262</v>
       </c>
       <c r="DO8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>47784.393442622953</v>
       </c>
       <c r="DP8" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ8" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7706</v>
       </c>
       <c r="DR8" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>33703.445544554459</v>
       </c>
       <c r="DS8" s="5">
@@ -3457,7 +3462,7 @@
         <v>1.0520614862441999</v>
       </c>
       <c r="DX8" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>68.620818352699203</v>
       </c>
     </row>
@@ -3472,7 +3477,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>18445.775000000001</v>
       </c>
       <c r="E9">
@@ -3491,7 +3496,7 @@
         <v>140885.6</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>411301.69999999995</v>
       </c>
       <c r="K9" s="5">
@@ -3510,7 +3515,7 @@
         <v>9.5010061264037997</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>30.921799969673131</v>
       </c>
       <c r="Q9" s="5">
@@ -3549,11 +3554,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA9" s="4">
-        <f>I9/U9</f>
+        <f t="shared" si="5"/>
         <v>46961.866666666669</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37054.207207207204</v>
       </c>
       <c r="AC9" s="22"/>
@@ -3573,7 +3578,7 @@
         <v>13.228162860870301</v>
       </c>
       <c r="AI9" s="3">
-        <f>SUM(AD9:AH9)</f>
+        <f t="shared" si="7"/>
         <v>34.361502480506779</v>
       </c>
       <c r="AJ9">
@@ -3592,7 +3597,7 @@
         <v>161670.5</v>
       </c>
       <c r="AO9" s="3">
-        <f>SUM(AJ9:AN9)</f>
+        <f t="shared" si="8"/>
         <v>389909.5</v>
       </c>
       <c r="AP9">
@@ -3611,31 +3616,31 @@
         <v>3.8</v>
       </c>
       <c r="AU9" s="3">
-        <f>SUM(AP9:AT9)</f>
+        <f t="shared" si="9"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="AV9">
-        <f>(AJ9/AP9)</f>
+        <f t="shared" si="10"/>
         <v>47264.28571428571</v>
       </c>
       <c r="AW9" t="e">
-        <f>(AK9/AQ9)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX9">
-        <f>(AL9/AR9)</f>
+        <f t="shared" si="25"/>
         <v>32246</v>
       </c>
       <c r="AY9" t="e">
-        <f>(AM9/AS9)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ9">
-        <f>(AN9/AT9)</f>
+        <f t="shared" si="27"/>
         <v>42544.868421052633</v>
       </c>
       <c r="BA9" s="3">
-        <f>(AO9/AU9)</f>
+        <f t="shared" si="12"/>
         <v>39384.797979797986</v>
       </c>
       <c r="BB9" s="22"/>
@@ -3655,7 +3660,7 @@
         <v>190361.3</v>
       </c>
       <c r="BH9" s="3">
-        <f>SUM(BC9:BG9)</f>
+        <f t="shared" ref="BH9:BH15" si="50">SUM(BC9:BG9)</f>
         <v>399857.3</v>
       </c>
       <c r="BI9">
@@ -3674,31 +3679,31 @@
         <v>4.2</v>
       </c>
       <c r="BN9">
-        <f>SUM(BI9:BM9)</f>
+        <f t="shared" ref="BN9:BN15" si="51">SUM(BI9:BM9)</f>
         <v>11.100000000000001</v>
       </c>
       <c r="BO9" s="5">
-        <f>(BU9/BI9)</f>
+        <f t="shared" ref="BO9:BS15" si="52">(BU9/BI9)</f>
         <v>2.77609041929245</v>
       </c>
       <c r="BP9" t="e">
-        <f>(BV9/BJ9)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ9">
-        <f>(BW9/BK9)</f>
+        <f t="shared" si="52"/>
         <v>3.5394381357698981</v>
       </c>
       <c r="BR9" t="e">
-        <f>(BX9/BL9)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS9">
-        <f>(BY9/BM9)</f>
+        <f t="shared" si="52"/>
         <v>3.9979935770942858</v>
       </c>
       <c r="BT9" s="3">
-        <f>(BH9/BN9)</f>
+        <f t="shared" ref="BT9:BT15" si="53">(BH9/BN9)</f>
         <v>36023.180180180178</v>
       </c>
       <c r="BU9">
@@ -3717,7 +3722,7 @@
         <v>16.791573023796001</v>
       </c>
       <c r="BZ9" s="3">
-        <f>SUM(BU9:BY9)</f>
+        <f t="shared" ref="BZ9:BZ15" si="54">SUM(BU9:BY9)</f>
         <v>39.687000727653398</v>
       </c>
       <c r="CA9" s="22"/>
@@ -3737,7 +3742,7 @@
         <v>152544.29999999999</v>
       </c>
       <c r="CG9" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>384436</v>
       </c>
       <c r="CH9" s="31">
@@ -3756,35 +3761,35 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="CM9" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>10.600000000000001</v>
       </c>
       <c r="CN9" s="24">
-        <f t="shared" ref="CN9:CN15" si="39">CB9/CH9</f>
+        <f t="shared" ref="CN9:CN15" si="55">CB9/CH9</f>
         <v>49621</v>
       </c>
       <c r="CO9" s="24" t="e">
-        <f t="shared" ref="CO9:CO15" si="40">CC9/CI9</f>
+        <f t="shared" ref="CO9:CO15" si="56">CC9/CI9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CP9" s="24">
-        <f t="shared" ref="CP9:CP15" si="41">CD9/CJ9</f>
+        <f t="shared" ref="CP9:CP15" si="57">CD9/CJ9</f>
         <v>35851.270270270274</v>
       </c>
       <c r="CQ9" s="24" t="e">
-        <f t="shared" ref="CQ9:CQ15" si="42">CE9/CK9</f>
+        <f t="shared" ref="CQ9:CQ15" si="58">CE9/CK9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CR9" s="24">
-        <f t="shared" ref="CR9:CR15" si="43">CF9/CL9</f>
+        <f t="shared" ref="CR9:CR15" si="59">CF9/CL9</f>
         <v>31131.489795918362</v>
       </c>
       <c r="CS9" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>36267.547169811318</v>
       </c>
       <c r="CY9" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ9" s="22"/>
@@ -3804,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="DF9" s="3">
-        <f>SUM(DA9:DE9)</f>
+        <f t="shared" si="49"/>
         <v>364938.1</v>
       </c>
       <c r="DG9">
@@ -3823,31 +3828,31 @@
         <v>0</v>
       </c>
       <c r="DL9">
-        <f>SUM(DG9:DK9)</f>
+        <f t="shared" ref="DL9:DL15" si="60">SUM(DG9:DK9)</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="DM9" s="5">
-        <f>DA9/DG9</f>
+        <f t="shared" ref="DM9:DR15" si="61">DA9/DG9</f>
         <v>49771.338235294119</v>
       </c>
       <c r="DN9" s="5" t="e">
-        <f>DB9/DH9</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO9" s="5">
-        <f>DC9/DI9</f>
+        <f t="shared" si="61"/>
         <v>13246.5</v>
       </c>
       <c r="DP9" s="5" t="e">
-        <f>DD9/DJ9</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ9" s="5" t="e">
-        <f>DE9/DK9</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR9" s="4">
-        <f>DF9/DL9</f>
+        <f t="shared" si="61"/>
         <v>41470.238636363632</v>
       </c>
       <c r="DS9" s="5">
@@ -3866,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="DX9" s="3">
-        <f>SUM(DS9:DW9)</f>
+        <f t="shared" ref="DX9:DX15" si="62">SUM(DS9:DW9)</f>
         <v>67.484325289726172</v>
       </c>
     </row>
@@ -3881,7 +3886,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14952.95</v>
       </c>
       <c r="E10">
@@ -3900,7 +3905,7 @@
         <v>111322</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>335310.8</v>
       </c>
       <c r="K10" s="5">
@@ -3919,7 +3924,7 @@
         <v>9.17313551902771</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>35.236942577361908</v>
       </c>
       <c r="Q10" s="5">
@@ -3958,11 +3963,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA10" s="4">
-        <f>I10/U10</f>
+        <f t="shared" si="5"/>
         <v>42816.153846153844</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31633.094339622643</v>
       </c>
       <c r="AC10" s="22"/>
@@ -3982,7 +3987,7 @@
         <v>13.4980149507522</v>
       </c>
       <c r="AI10" s="3">
-        <f>SUM(AD10:AH10)</f>
+        <f t="shared" si="7"/>
         <v>41.449268984794521</v>
       </c>
       <c r="AJ10">
@@ -4001,7 +4006,7 @@
         <v>119308</v>
       </c>
       <c r="AO10" s="3">
-        <f>SUM(AJ10:AN10)</f>
+        <f t="shared" si="8"/>
         <v>304679.59999999998</v>
       </c>
       <c r="AP10">
@@ -4020,31 +4025,31 @@
         <v>3</v>
       </c>
       <c r="AU10" s="3">
-        <f>SUM(AP10:AT10)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AV10">
-        <f>(AJ10/AP10)</f>
+        <f t="shared" si="10"/>
         <v>31955.8</v>
       </c>
       <c r="AW10">
-        <f>(AK10/AQ10)</f>
+        <f t="shared" si="24"/>
         <v>51594</v>
       </c>
       <c r="AX10">
-        <f>(AL10/AR10)</f>
+        <f t="shared" si="25"/>
         <v>34933</v>
       </c>
       <c r="AY10" t="e">
-        <f>(AM10/AS10)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ10">
-        <f>(AN10/AT10)</f>
+        <f t="shared" si="27"/>
         <v>39769.333333333336</v>
       </c>
       <c r="BA10" s="3">
-        <f>(AO10/AU10)</f>
+        <f t="shared" si="12"/>
         <v>38084.949999999997</v>
       </c>
       <c r="BB10" s="22"/>
@@ -4064,7 +4069,7 @@
         <v>57342</v>
       </c>
       <c r="BH10" s="3">
-        <f>SUM(BC10:BG10)</f>
+        <f t="shared" si="50"/>
         <v>325706.90000000002</v>
       </c>
       <c r="BI10">
@@ -4083,31 +4088,31 @@
         <v>2</v>
       </c>
       <c r="BN10">
-        <f>SUM(BI10:BM10)</f>
+        <f t="shared" si="51"/>
         <v>8.5</v>
       </c>
       <c r="BO10" s="5">
-        <f>(BU10/BI10)</f>
+        <f t="shared" si="52"/>
         <v>4.5227259159088096</v>
       </c>
       <c r="BP10" s="5">
-        <f>(BV10/BJ10)</f>
+        <f t="shared" si="52"/>
         <v>1.6783221483230499</v>
       </c>
       <c r="BQ10" s="5">
-        <f>(BW10/BK10)</f>
+        <f t="shared" si="52"/>
         <v>11.359919711521686</v>
       </c>
       <c r="BR10" s="5" t="e">
-        <f>(BX10/BL10)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS10" s="5">
-        <f>(BY10/BM10)</f>
+        <f t="shared" si="52"/>
         <v>2.47624979019165</v>
       </c>
       <c r="BT10" s="5">
-        <f>(BH10/BN10)</f>
+        <f t="shared" si="53"/>
         <v>38318.458823529414</v>
       </c>
       <c r="BU10">
@@ -4126,7 +4131,7 @@
         <v>4.9524995803833001</v>
       </c>
       <c r="BZ10" s="3">
-        <f>SUM(BU10:BY10)</f>
+        <f t="shared" si="54"/>
         <v>55.435992550849875</v>
       </c>
       <c r="CA10" s="22"/>
@@ -4146,7 +4151,7 @@
         <v>119308</v>
       </c>
       <c r="CG10" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>304843</v>
       </c>
       <c r="CH10" s="31">
@@ -4165,35 +4170,35 @@
         <v>3</v>
       </c>
       <c r="CM10" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="CN10" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>32037.5</v>
       </c>
       <c r="CO10" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>51594</v>
       </c>
       <c r="CP10" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>34933</v>
       </c>
       <c r="CQ10" s="24" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR10" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>39769.333333333336</v>
       </c>
       <c r="CS10" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>38105.375</v>
       </c>
       <c r="CY10" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ10" s="22"/>
@@ -4213,7 +4218,7 @@
         <v>33051</v>
       </c>
       <c r="DF10" s="3">
-        <f>SUM(DA10:DE10)</f>
+        <f t="shared" si="49"/>
         <v>296525.90000000002</v>
       </c>
       <c r="DG10">
@@ -4232,31 +4237,31 @@
         <v>2</v>
       </c>
       <c r="DL10">
-        <f>SUM(DG10:DK10)</f>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="DM10" s="5">
-        <f>DA10/DG10</f>
+        <f t="shared" si="61"/>
         <v>28339</v>
       </c>
       <c r="DN10" s="5" t="e">
-        <f>DB10/DH10</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO10" s="5">
-        <f>DC10/DI10</f>
+        <f t="shared" si="61"/>
         <v>47027.18</v>
       </c>
       <c r="DP10" s="5" t="e">
-        <f>DD10/DJ10</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ10" s="5">
-        <f>DE10/DK10</f>
+        <f t="shared" si="61"/>
         <v>16525.5</v>
       </c>
       <c r="DR10" s="4">
-        <f>DF10/DL10</f>
+        <f t="shared" si="61"/>
         <v>37065.737500000003</v>
       </c>
       <c r="DS10" s="5">
@@ -4275,7 +4280,7 @@
         <v>2.91704552173614</v>
       </c>
       <c r="DX10" s="3">
-        <f>SUM(DS10:DW10)</f>
+        <f t="shared" si="62"/>
         <v>83.307527446746761</v>
       </c>
     </row>
@@ -4290,7 +4295,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>15267.65</v>
       </c>
       <c r="E11">
@@ -4309,7 +4314,7 @@
         <v>119673.60000000001</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>331195.2</v>
       </c>
       <c r="K11" s="5">
@@ -4328,7 +4333,7 @@
         <v>16.006948518752999</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>42.646873807906907</v>
       </c>
       <c r="Q11" s="5">
@@ -4367,11 +4372,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA11" s="4">
-        <f>I11/U11</f>
+        <f t="shared" si="5"/>
         <v>39891.200000000004</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36799.466666666667</v>
       </c>
       <c r="AC11" s="22"/>
@@ -4391,7 +4396,7 @@
         <v>14.1775552749633</v>
       </c>
       <c r="AI11" s="3">
-        <f>SUM(AD11:AH11)</f>
+        <f t="shared" si="7"/>
         <v>47.111652469634905</v>
       </c>
       <c r="AJ11">
@@ -4410,7 +4415,7 @@
         <v>117496</v>
       </c>
       <c r="AO11" s="3">
-        <f>SUM(AJ11:AN11)</f>
+        <f t="shared" si="8"/>
         <v>347826.3</v>
       </c>
       <c r="AP11">
@@ -4429,31 +4434,31 @@
         <v>2</v>
       </c>
       <c r="AU11" s="3">
-        <f>SUM(AP11:AT11)</f>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="AV11">
-        <f>(AJ11/AP11)</f>
+        <f t="shared" si="10"/>
         <v>57824</v>
       </c>
       <c r="AW11" t="e">
-        <f>(AK11/AQ11)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX11">
-        <f>(AL11/AR11)</f>
+        <f t="shared" si="25"/>
         <v>35838.21875</v>
       </c>
       <c r="AY11" t="e">
-        <f>(AM11/AS11)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ11">
-        <f>(AN11/AT11)</f>
+        <f t="shared" si="27"/>
         <v>58748</v>
       </c>
       <c r="BA11" s="3">
-        <f>(AO11/AU11)</f>
+        <f t="shared" si="12"/>
         <v>48309.208333333328</v>
       </c>
       <c r="BB11" s="22"/>
@@ -4473,7 +4478,7 @@
         <v>139854.5</v>
       </c>
       <c r="BH11" s="3">
-        <f>SUM(BC11:BG11)</f>
+        <f t="shared" si="50"/>
         <v>356702.4</v>
       </c>
       <c r="BI11">
@@ -4492,31 +4497,31 @@
         <v>3</v>
       </c>
       <c r="BN11">
-        <f>SUM(BI11:BM11)</f>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="BO11" s="5">
-        <f>(BU11/BI11)</f>
+        <f t="shared" si="52"/>
         <v>1.8683444579442332</v>
       </c>
       <c r="BP11" s="5" t="e">
-        <f>(BV11/BJ11)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ11" s="5">
-        <f>(BW11/BK11)</f>
+        <f t="shared" si="52"/>
         <v>4.4876382541656401</v>
       </c>
       <c r="BR11" s="5" t="e">
-        <f>(BX11/BL11)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS11" s="5">
-        <f>(BY11/BM11)</f>
+        <f t="shared" si="52"/>
         <v>5.2674372116724335</v>
       </c>
       <c r="BT11" s="5">
-        <f>(BH11/BN11)</f>
+        <f t="shared" si="53"/>
         <v>32427.49090909091</v>
       </c>
       <c r="BU11">
@@ -4535,7 +4540,7 @@
         <v>15.802311635017301</v>
       </c>
       <c r="BZ11" s="3">
-        <f>SUM(BU11:BY11)</f>
+        <f t="shared" si="54"/>
         <v>43.8455362796782</v>
       </c>
       <c r="CA11" s="22"/>
@@ -4555,7 +4560,7 @@
         <v>117496</v>
       </c>
       <c r="CG11" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>347835.3</v>
       </c>
       <c r="CH11" s="31">
@@ -4574,35 +4579,35 @@
         <v>2</v>
       </c>
       <c r="CM11" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>7.2</v>
       </c>
       <c r="CN11" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>57824</v>
       </c>
       <c r="CO11" s="24" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CP11" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>35841.03125</v>
       </c>
       <c r="CQ11" s="24" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR11" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>58748</v>
       </c>
       <c r="CS11" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>48310.458333333328</v>
       </c>
       <c r="CY11" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ11" s="22"/>
@@ -4622,7 +4627,7 @@
         <v>14322</v>
       </c>
       <c r="DF11" s="3">
-        <f>SUM(DA11:DE11)</f>
+        <f t="shared" si="49"/>
         <v>329832</v>
       </c>
       <c r="DG11">
@@ -4641,31 +4646,31 @@
         <v>1</v>
       </c>
       <c r="DL11">
-        <f>SUM(DG11:DK11)</f>
+        <f t="shared" si="60"/>
         <v>8.5</v>
       </c>
       <c r="DM11" s="5">
-        <f>DA11/DG11</f>
+        <f t="shared" si="61"/>
         <v>12735</v>
       </c>
       <c r="DN11" s="5" t="e">
-        <f>DB11/DH11</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO11" s="5">
-        <f>DC11/DI11</f>
+        <f t="shared" si="61"/>
         <v>52734.545454545456</v>
       </c>
       <c r="DP11" s="5" t="e">
-        <f>DD11/DJ11</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ11" s="5">
-        <f>DE11/DK11</f>
+        <f t="shared" si="61"/>
         <v>14322</v>
       </c>
       <c r="DR11" s="4">
-        <f>DF11/DL11</f>
+        <f t="shared" si="61"/>
         <v>38803.76470588235</v>
       </c>
       <c r="DS11" s="5">
@@ -4684,7 +4689,7 @@
         <v>1.1530348062515201</v>
       </c>
       <c r="DX11" s="3">
-        <f>SUM(DS11:DW11)</f>
+        <f t="shared" si="62"/>
         <v>92.598849391937179</v>
       </c>
     </row>
@@ -4699,7 +4704,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16551.025000000001</v>
       </c>
       <c r="E12">
@@ -4718,7 +4723,7 @@
         <v>90525.3</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>369928.5</v>
       </c>
       <c r="K12" s="5">
@@ -4737,7 +4742,7 @@
         <v>7.3302107572555499</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>39.45004477500904</v>
       </c>
       <c r="Q12" s="5">
@@ -4776,11 +4781,11 @@
         <v>30302</v>
       </c>
       <c r="AA12" s="4">
-        <f>I12/U12</f>
+        <f t="shared" si="5"/>
         <v>30175.100000000002</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31349.872881355932</v>
       </c>
       <c r="AC12" s="22"/>
@@ -4800,7 +4805,7 @@
         <v>6.2061499595641996</v>
       </c>
       <c r="AI12" s="3">
-        <f>SUM(AD12:AH12)</f>
+        <f t="shared" si="7"/>
         <v>45.026638197898762</v>
       </c>
       <c r="AJ12">
@@ -4819,7 +4824,7 @@
         <v>85926</v>
       </c>
       <c r="AO12" s="3">
-        <f>SUM(AJ12:AN12)</f>
+        <f t="shared" si="8"/>
         <v>369791.2</v>
       </c>
       <c r="AP12">
@@ -4838,31 +4843,31 @@
         <v>2</v>
       </c>
       <c r="AU12" s="3">
-        <f>SUM(AP12:AT12)</f>
+        <f t="shared" si="9"/>
         <v>9.1</v>
       </c>
       <c r="AV12">
-        <f>(AJ12/AP12)</f>
+        <f t="shared" si="10"/>
         <v>44780.870967741939</v>
       </c>
       <c r="AW12">
-        <f>(AK12/AQ12)</f>
+        <f t="shared" si="24"/>
         <v>34697</v>
       </c>
       <c r="AX12">
-        <f>(AL12/AR12)</f>
+        <f t="shared" si="25"/>
         <v>36782.5</v>
       </c>
       <c r="AY12" t="e">
-        <f>(AM12/AS12)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ12">
-        <f>(AN12/AT12)</f>
+        <f t="shared" si="27"/>
         <v>42963</v>
       </c>
       <c r="BA12" s="3">
-        <f>(AO12/AU12)</f>
+        <f t="shared" si="12"/>
         <v>40636.395604395606</v>
       </c>
       <c r="BB12" s="22"/>
@@ -4882,7 +4887,7 @@
         <v>67785</v>
       </c>
       <c r="BH12" s="3">
-        <f>SUM(BC12:BG12)</f>
+        <f t="shared" si="50"/>
         <v>361527.4</v>
       </c>
       <c r="BI12">
@@ -4901,31 +4906,31 @@
         <v>2</v>
       </c>
       <c r="BN12">
-        <f>SUM(BI12:BM12)</f>
+        <f t="shared" si="51"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="BO12" s="5">
-        <f>(BU12/BI12)</f>
+        <f t="shared" si="52"/>
         <v>3.8582925714295171</v>
       </c>
       <c r="BP12" s="5">
-        <f>(BV12/BJ12)</f>
+        <f t="shared" si="52"/>
         <v>1.95701684951782</v>
       </c>
       <c r="BQ12" s="5">
-        <f>(BW12/BK12)</f>
+        <f t="shared" si="52"/>
         <v>12.560367013726895</v>
       </c>
       <c r="BR12" s="5">
-        <f>(BX12/BL12)</f>
+        <f t="shared" si="52"/>
         <v>1.10285701751708</v>
       </c>
       <c r="BS12" s="5">
-        <f>(BY12/BM12)</f>
+        <f t="shared" si="52"/>
         <v>1.58899890184402</v>
       </c>
       <c r="BT12" s="5">
-        <f>(BH12/BN12)</f>
+        <f t="shared" si="53"/>
         <v>37270.865979381451</v>
       </c>
       <c r="BU12">
@@ -4944,7 +4949,7 @@
         <v>3.1779978036880401</v>
       </c>
       <c r="BZ12" s="3">
-        <f>SUM(BU12:BY12)</f>
+        <f t="shared" si="54"/>
         <v>52.595947766303851</v>
       </c>
       <c r="CA12" s="22"/>
@@ -4964,7 +4969,7 @@
         <v>78241</v>
       </c>
       <c r="CG12" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>379244</v>
       </c>
       <c r="CH12" s="31">
@@ -4983,35 +4988,35 @@
         <v>2</v>
       </c>
       <c r="CM12" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="CN12" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>46472.533333333333</v>
       </c>
       <c r="CO12" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>34697</v>
       </c>
       <c r="CP12" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>36818.133333333331</v>
       </c>
       <c r="CQ12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>16434</v>
       </c>
       <c r="CR12" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>39120.5</v>
       </c>
       <c r="CS12" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>37924.400000000001</v>
       </c>
       <c r="CY12" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ12" s="22"/>
@@ -5031,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="DF12" s="3">
-        <f>SUM(DA12:DE12)</f>
+        <f t="shared" si="49"/>
         <v>333383.8</v>
       </c>
       <c r="DG12">
@@ -5050,31 +5055,31 @@
         <v>0</v>
       </c>
       <c r="DL12">
-        <f>SUM(DG12:DK12)</f>
+        <f t="shared" si="60"/>
         <v>7.5</v>
       </c>
       <c r="DM12" s="5">
-        <f>DA12/DG12</f>
+        <f t="shared" si="61"/>
         <v>27732</v>
       </c>
       <c r="DN12" s="5" t="e">
-        <f>DB12/DH12</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO12" s="5">
-        <f>DC12/DI12</f>
+        <f t="shared" si="61"/>
         <v>52585.054545454543</v>
       </c>
       <c r="DP12" s="5">
-        <f>DD12/DJ12</f>
+        <f t="shared" si="61"/>
         <v>16434</v>
       </c>
       <c r="DQ12" s="5" t="e">
-        <f>DE12/DK12</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR12" s="4">
-        <f>DF12/DL12</f>
+        <f t="shared" si="61"/>
         <v>44451.173333333332</v>
       </c>
       <c r="DS12" s="5">
@@ -5093,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="DX12" s="3">
-        <f>SUM(DS12:DW12)</f>
+        <f t="shared" si="62"/>
         <v>89.372855186462388</v>
       </c>
     </row>
@@ -5108,7 +5113,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>17523.625</v>
       </c>
       <c r="E13">
@@ -5127,7 +5132,7 @@
         <v>158701.6</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>368737.69999999995</v>
       </c>
       <c r="K13" s="5">
@@ -5146,7 +5151,7 @@
         <v>12.4079309940338</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>36.496618437766955</v>
       </c>
       <c r="Q13" s="5">
@@ -5165,19 +5170,19 @@
         <v>3</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" ref="V13:V15" si="44">SUM(Q13:U13)</f>
+        <f t="shared" ref="V13:V15" si="63">SUM(Q13:U13)</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" ref="W13:W14" si="45">E13/Q13</f>
+        <f t="shared" ref="W13:W14" si="64">E13/Q13</f>
         <v>46578.400000000001</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" ref="X13:X14" si="46">F13/R13</f>
+        <f t="shared" ref="X13:X14" si="65">F13/R13</f>
         <v>40595</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" ref="Y13:Y14" si="47">G13/S13</f>
+        <f t="shared" ref="Y13:Y14" si="66">G13/S13</f>
         <v>23116.454545454548</v>
       </c>
       <c r="Z13" s="4" t="e">
@@ -5185,11 +5190,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA13" s="4">
-        <f>I13/U13</f>
+        <f t="shared" si="5"/>
         <v>52900.533333333333</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39649.21505376343</v>
       </c>
       <c r="AC13" s="22"/>
@@ -5209,7 +5214,7 @@
         <v>10.2579130887985</v>
       </c>
       <c r="AI13" s="3">
-        <f>SUM(AD13:AH13)</f>
+        <f t="shared" si="7"/>
         <v>40.173959207534651</v>
       </c>
       <c r="AJ13">
@@ -5228,7 +5233,7 @@
         <v>137734.6</v>
       </c>
       <c r="AO13" s="3">
-        <f>SUM(AJ13:AN13)</f>
+        <f t="shared" si="8"/>
         <v>380761.59999999998</v>
       </c>
       <c r="AP13">
@@ -5247,31 +5252,31 @@
         <v>2.7</v>
       </c>
       <c r="AU13" s="3">
-        <f>SUM(AP13:AT13)</f>
+        <f t="shared" si="9"/>
         <v>11.2</v>
       </c>
       <c r="AV13">
-        <f>(AJ13/AP13)</f>
+        <f t="shared" si="10"/>
         <v>34322.473684210527</v>
       </c>
       <c r="AW13">
-        <f>(AK13/AQ13)</f>
+        <f t="shared" si="24"/>
         <v>24848</v>
       </c>
       <c r="AX13">
-        <f>(AL13/AR13)</f>
+        <f t="shared" si="25"/>
         <v>23717.18918918919</v>
       </c>
       <c r="AY13" t="e">
-        <f>(AM13/AS13)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ13">
-        <f>(AN13/AT13)</f>
+        <f t="shared" si="27"/>
         <v>51012.81481481481</v>
       </c>
       <c r="BA13" s="3">
-        <f>(AO13/AU13)</f>
+        <f t="shared" si="12"/>
         <v>33996.571428571428</v>
       </c>
       <c r="BB13" s="22"/>
@@ -5291,7 +5296,7 @@
         <v>141555</v>
       </c>
       <c r="BH13" s="3">
-        <f>SUM(BC13:BG13)</f>
+        <f t="shared" si="50"/>
         <v>373444.4</v>
       </c>
       <c r="BI13">
@@ -5310,31 +5315,31 @@
         <v>2</v>
       </c>
       <c r="BN13">
-        <f>SUM(BI13:BM13)</f>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="BO13" s="5">
-        <f>(BU13/BI13)</f>
+        <f t="shared" si="52"/>
         <v>5.5749618007290644</v>
       </c>
       <c r="BP13">
-        <f>(BV13/BJ13)</f>
+        <f t="shared" si="52"/>
         <v>1.11901040077209</v>
       </c>
       <c r="BQ13">
-        <f>(BW13/BK13)</f>
+        <f t="shared" si="52"/>
         <v>3.7650184549134136</v>
       </c>
       <c r="BR13" t="e">
-        <f>(BX13/BL13)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS13">
-        <f>(BY13/BM13)</f>
+        <f t="shared" si="52"/>
         <v>6.6307663679122504</v>
       </c>
       <c r="BT13" s="3">
-        <f>(BH13/BN13)</f>
+        <f t="shared" si="53"/>
         <v>41493.822222222225</v>
       </c>
       <c r="BU13">
@@ -5353,7 +5358,7 @@
         <v>13.261532735824501</v>
       </c>
       <c r="BZ13" s="3">
-        <f>SUM(BU13:BY13)</f>
+        <f t="shared" si="54"/>
         <v>42.581478238105589</v>
       </c>
       <c r="CA13" s="22"/>
@@ -5373,7 +5378,7 @@
         <v>137685.4</v>
       </c>
       <c r="CG13" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>380580.1</v>
       </c>
       <c r="CH13" s="31">
@@ -5392,35 +5397,35 @@
         <v>2.8</v>
       </c>
       <c r="CM13" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>11.3</v>
       </c>
       <c r="CN13" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>34380.815789473687</v>
       </c>
       <c r="CO13" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>24848</v>
       </c>
       <c r="CP13" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>23621.513513513513</v>
       </c>
       <c r="CQ13" s="24" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR13" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>49173.357142857145</v>
       </c>
       <c r="CS13" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>33679.654867256635</v>
       </c>
       <c r="CY13" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ13" s="22"/>
@@ -5440,7 +5445,7 @@
         <v>34934</v>
       </c>
       <c r="DF13" s="3">
-        <f>SUM(DA13:DE13)</f>
+        <f t="shared" si="49"/>
         <v>352257.3</v>
       </c>
       <c r="DG13">
@@ -5459,31 +5464,31 @@
         <v>1</v>
       </c>
       <c r="DL13">
-        <f>SUM(DG13:DK13)</f>
+        <f t="shared" si="60"/>
         <v>8.5</v>
       </c>
       <c r="DM13" s="5">
-        <f>DA13/DG13</f>
+        <f t="shared" si="61"/>
         <v>52365.509090909087</v>
       </c>
       <c r="DN13" s="5" t="e">
-        <f>DB13/DH13</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO13" s="5">
-        <f>DC13/DI13</f>
+        <f t="shared" si="61"/>
         <v>14656.5</v>
       </c>
       <c r="DP13" s="5" t="e">
-        <f>DD13/DJ13</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ13" s="5">
-        <f>DE13/DK13</f>
+        <f t="shared" si="61"/>
         <v>34934</v>
       </c>
       <c r="DR13" s="4">
-        <f>DF13/DL13</f>
+        <f t="shared" si="61"/>
         <v>41442.035294117646</v>
       </c>
       <c r="DS13" s="5">
@@ -5502,7 +5507,7 @@
         <v>1.5280706405639599</v>
       </c>
       <c r="DX13" s="3">
-        <f>SUM(DS13:DW13)</f>
+        <f t="shared" si="62"/>
         <v>74.199581766128532</v>
       </c>
     </row>
@@ -5517,7 +5522,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>17523.625</v>
       </c>
       <c r="E14">
@@ -5536,7 +5541,7 @@
         <v>165176.20000000001</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>392711.9</v>
       </c>
       <c r="K14" s="5">
@@ -5555,7 +5560,7 @@
         <v>15.670147943496699</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>42.46914019584645</v>
       </c>
       <c r="Q14" s="5">
@@ -5574,19 +5579,19 @@
         <v>2.6</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>10.799999999999999</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>34366.666666666664</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="65"/>
         <v>22204.5</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="66"/>
         <v>25008.343749999996</v>
       </c>
       <c r="Z14" s="5" t="e">
@@ -5594,11 +5599,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA14" s="5">
-        <f>I14/U14</f>
+        <f t="shared" si="5"/>
         <v>63529.307692307695</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36362.212962962971</v>
       </c>
       <c r="AC14" s="22"/>
@@ -5618,7 +5623,7 @@
         <v>10.102715826034499</v>
       </c>
       <c r="AI14" s="3">
-        <f>SUM(AD14:AH14)</f>
+        <f t="shared" si="7"/>
         <v>41.380345439910748</v>
       </c>
       <c r="AJ14">
@@ -5637,7 +5642,7 @@
         <v>128962</v>
       </c>
       <c r="AO14" s="4">
-        <f>SUM(AJ14:AN14)</f>
+        <f t="shared" si="8"/>
         <v>373415.3</v>
       </c>
       <c r="AP14" s="5">
@@ -5656,31 +5661,31 @@
         <v>2</v>
       </c>
       <c r="AU14" s="3">
-        <f>SUM(AP14:AT14)</f>
+        <f t="shared" si="9"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="AV14">
-        <f>(AJ14/AP14)</f>
+        <f t="shared" si="10"/>
         <v>37580.216216216213</v>
       </c>
       <c r="AW14">
-        <f>(AK14/AQ14)</f>
+        <f t="shared" si="24"/>
         <v>28910</v>
       </c>
       <c r="AX14">
-        <f>(AL14/AR14)</f>
+        <f t="shared" si="25"/>
         <v>25498.833333333332</v>
       </c>
       <c r="AY14" t="e">
-        <f>(AM14/AS14)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ14">
-        <f>(AN14/AT14)</f>
+        <f t="shared" si="27"/>
         <v>64481</v>
       </c>
       <c r="BA14" s="3">
-        <f>(AO14/AU14)</f>
+        <f t="shared" si="12"/>
         <v>38496.422680412375</v>
       </c>
       <c r="BB14" s="22"/>
@@ -5700,7 +5705,7 @@
         <v>127170</v>
       </c>
       <c r="BH14" s="3">
-        <f>SUM(BC14:BG14)</f>
+        <f t="shared" si="50"/>
         <v>363276.1</v>
       </c>
       <c r="BI14">
@@ -5719,31 +5724,31 @@
         <v>2</v>
       </c>
       <c r="BN14">
-        <f>SUM(BI14:BM14)</f>
+        <f t="shared" si="51"/>
         <v>7.9</v>
       </c>
       <c r="BO14" s="5">
-        <f>(BU14/BI14)</f>
+        <f t="shared" si="52"/>
         <v>3.6511421521504666</v>
       </c>
       <c r="BP14" t="e">
-        <f>(BV14/BJ14)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ14">
-        <f>(BW14/BK14)</f>
+        <f t="shared" si="52"/>
         <v>7.0979311137363794</v>
       </c>
       <c r="BR14" t="e">
-        <f>(BX14/BL14)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS14">
-        <f>(BY14/BM14)</f>
+        <f t="shared" si="52"/>
         <v>4.2869055986404403</v>
       </c>
       <c r="BT14" s="3">
-        <f>(BH14/BN14)</f>
+        <f t="shared" si="53"/>
         <v>45984.3164556962</v>
       </c>
       <c r="BU14">
@@ -5762,7 +5767,7 @@
         <v>8.5738111972808806</v>
       </c>
       <c r="BZ14" s="3">
-        <f>SUM(BU14:BY14)</f>
+        <f t="shared" si="54"/>
         <v>40.111237883567782</v>
       </c>
       <c r="CA14" s="22"/>
@@ -5782,7 +5787,7 @@
         <v>128962</v>
       </c>
       <c r="CG14" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>373246.7</v>
       </c>
       <c r="CH14" s="31">
@@ -5801,35 +5806,35 @@
         <v>2</v>
       </c>
       <c r="CM14" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="CN14" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>37546.135135135133</v>
       </c>
       <c r="CO14" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>28910</v>
       </c>
       <c r="CP14" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>25484.666666666668</v>
       </c>
       <c r="CQ14" s="24" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR14" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>64481</v>
       </c>
       <c r="CS14" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>38479.041237113408</v>
       </c>
       <c r="CY14" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ14" s="22"/>
@@ -5849,7 +5854,7 @@
         <v>272668.3</v>
       </c>
       <c r="DF14" s="3">
-        <f>SUM(DA14:DE14)</f>
+        <f t="shared" si="49"/>
         <v>326195.3</v>
       </c>
       <c r="DG14">
@@ -5868,31 +5873,31 @@
         <v>5.6</v>
       </c>
       <c r="DL14">
-        <f>SUM(DG14:DK14)</f>
+        <f t="shared" si="60"/>
         <v>8.6</v>
       </c>
       <c r="DM14" s="5">
-        <f>DA14/DG14</f>
+        <f t="shared" si="61"/>
         <v>24418</v>
       </c>
       <c r="DN14" s="5" t="e">
-        <f>DB14/DH14</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO14" s="5">
-        <f>DC14/DI14</f>
+        <f t="shared" si="61"/>
         <v>14554.5</v>
       </c>
       <c r="DP14" s="5" t="e">
-        <f>DD14/DJ14</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ14" s="5">
-        <f>DE14/DK14</f>
+        <f t="shared" si="61"/>
         <v>48690.767857142855</v>
       </c>
       <c r="DR14" s="4">
-        <f>DF14/DL14</f>
+        <f t="shared" si="61"/>
         <v>37929.686046511626</v>
       </c>
       <c r="DS14" s="5">
@@ -5911,7 +5916,7 @@
         <v>67.527369379997197</v>
       </c>
       <c r="DX14" s="3">
-        <f>SUM(DS14:DW14)</f>
+        <f t="shared" si="62"/>
         <v>75.481088781356746</v>
       </c>
     </row>
@@ -5926,7 +5931,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>15352.325000000001</v>
       </c>
       <c r="E15">
@@ -5945,7 +5950,7 @@
         <v>139849.1</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>367392.1</v>
       </c>
       <c r="K15" s="5">
@@ -5964,7 +5969,7 @@
         <v>10.7400239706039</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>32.65802397727952</v>
       </c>
       <c r="Q15" s="5">
@@ -5983,31 +5988,31 @@
         <v>4</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>11</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" ref="W15" si="48">E15/Q15</f>
+        <f t="shared" ref="W15" si="67">E15/Q15</f>
         <v>32574.333333333332</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" ref="X15" si="49">F15/R15</f>
+        <f t="shared" ref="X15" si="68">F15/R15</f>
         <v>24472</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" ref="Y15" si="50">G15/S15</f>
+        <f t="shared" ref="Y15" si="69">G15/S15</f>
         <v>40438</v>
       </c>
       <c r="Z15" s="5" t="e">
-        <f t="shared" ref="Z15" si="51">H15/T15</f>
+        <f t="shared" ref="Z15" si="70">H15/T15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" ref="AA15" si="52">I15/U15</f>
+        <f t="shared" ref="AA15" si="71">I15/U15</f>
         <v>34962.275000000001</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33399.281818181815</v>
       </c>
       <c r="AC15" s="22"/>
@@ -6027,7 +6032,7 @@
         <v>11.2433337926864</v>
       </c>
       <c r="AI15" s="3">
-        <f>SUM(AD15:AH15)</f>
+        <f t="shared" si="7"/>
         <v>33.354327917098878</v>
       </c>
       <c r="AJ15">
@@ -6046,7 +6051,7 @@
         <v>139579</v>
       </c>
       <c r="AO15" s="4">
-        <f>SUM(AJ15:AN15)</f>
+        <f t="shared" si="8"/>
         <v>367122</v>
       </c>
       <c r="AP15" s="5">
@@ -6065,31 +6070,31 @@
         <v>4</v>
       </c>
       <c r="AU15" s="3">
-        <f>SUM(AP15:AT15)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AV15">
-        <f>(AJ15/AP15)</f>
+        <f t="shared" si="10"/>
         <v>32574.333333333332</v>
       </c>
       <c r="AW15">
-        <f>(AK15/AQ15)</f>
+        <f t="shared" si="24"/>
         <v>24472</v>
       </c>
       <c r="AX15">
-        <f>(AL15/AR15)</f>
+        <f t="shared" si="25"/>
         <v>40438</v>
       </c>
       <c r="AY15" t="e">
-        <f>(AM15/AS15)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ15">
-        <f>(AN15/AT15)</f>
+        <f t="shared" si="27"/>
         <v>34894.75</v>
       </c>
       <c r="BA15">
-        <f>(AO15/AU15)</f>
+        <f t="shared" si="12"/>
         <v>33374.727272727272</v>
       </c>
       <c r="BC15">
@@ -6108,7 +6113,7 @@
         <v>122658.1</v>
       </c>
       <c r="BH15" s="3">
-        <f>SUM(BC15:BG15)</f>
+        <f t="shared" si="50"/>
         <v>352487.7</v>
       </c>
       <c r="BI15">
@@ -6127,31 +6132,31 @@
         <v>3</v>
       </c>
       <c r="BN15">
-        <f>SUM(BI15:BM15)</f>
+        <f t="shared" si="51"/>
         <v>11.3</v>
       </c>
       <c r="BO15" s="5">
-        <f>(BU15/BI15)</f>
+        <f t="shared" si="52"/>
         <v>1.440334528684615</v>
       </c>
       <c r="BP15" t="e">
-        <f>(BV15/BJ15)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ15">
-        <f>(BW15/BK15)</f>
+        <f t="shared" si="52"/>
         <v>7.6006474217703017</v>
       </c>
       <c r="BR15" t="e">
-        <f>(BX15/BL15)</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS15">
-        <f>(BY15/BM15)</f>
+        <f t="shared" si="52"/>
         <v>2.7852959950764968</v>
       </c>
       <c r="BT15" s="3">
-        <f>(BH15/BN15)</f>
+        <f t="shared" si="53"/>
         <v>31193.601769911504</v>
       </c>
       <c r="BU15">
@@ -6170,7 +6175,7 @@
         <v>8.3558879852294901</v>
       </c>
       <c r="BZ15" s="3">
-        <f>SUM(BU15:BY15)</f>
+        <f t="shared" si="54"/>
         <v>46.800010013580248</v>
       </c>
       <c r="CA15" s="22"/>
@@ -6190,7 +6195,7 @@
         <v>133258.29999999999</v>
       </c>
       <c r="CG15" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>351150.3</v>
       </c>
       <c r="CH15" s="31">
@@ -6209,35 +6214,35 @@
         <v>3.1</v>
       </c>
       <c r="CM15" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>12.1</v>
       </c>
       <c r="CN15" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>16598.25</v>
       </c>
       <c r="CO15" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>36447</v>
       </c>
       <c r="CP15" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>28763</v>
       </c>
       <c r="CQ15" s="24" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR15" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>42986.548387096773</v>
       </c>
       <c r="CS15" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>29020.685950413223</v>
       </c>
       <c r="CY15" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="CZ15" s="22"/>
@@ -6257,7 +6262,7 @@
         <v>7706</v>
       </c>
       <c r="DF15" s="3">
-        <f>SUM(DA15:DE15)</f>
+        <f t="shared" si="49"/>
         <v>346259.8</v>
       </c>
       <c r="DG15">
@@ -6276,31 +6281,31 @@
         <v>1</v>
       </c>
       <c r="DL15">
-        <f>SUM(DG15:DK15)</f>
+        <f t="shared" si="60"/>
         <v>10.4</v>
       </c>
       <c r="DM15" s="5">
-        <f>DA15/DG15</f>
+        <f t="shared" si="61"/>
         <v>17391.5</v>
       </c>
       <c r="DN15" s="5" t="e">
-        <f>DB15/DH15</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO15" s="5">
-        <f>DC15/DI15</f>
+        <f t="shared" si="61"/>
         <v>41050.108108108107</v>
       </c>
       <c r="DP15" s="5" t="e">
-        <f>DD15/DJ15</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ15" s="5">
-        <f>DE15/DK15</f>
+        <f t="shared" si="61"/>
         <v>7706</v>
       </c>
       <c r="DR15" s="4">
-        <f>DF15/DL15</f>
+        <f t="shared" si="61"/>
         <v>33294.211538461539</v>
       </c>
       <c r="DS15" s="5">
@@ -6319,7 +6324,7 @@
         <v>1.2214313268661401</v>
       </c>
       <c r="DX15" s="3">
-        <f>SUM(DS15:DW15)</f>
+        <f t="shared" si="62"/>
         <v>77.368943953514062</v>
       </c>
     </row>
@@ -6340,12 +6345,12 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="5"/>
       <c r="AU16" s="3">
-        <f t="shared" ref="AU16:AU30" si="53">SUM(AP16:AT16)</f>
+        <f t="shared" ref="AU16:AU22" si="72">SUM(AP16:AT16)</f>
         <v>0</v>
       </c>
       <c r="AV16" s="5"/>
       <c r="BA16" s="3">
-        <f t="shared" ref="BA16:BA30" si="54">SUM(AV16:AZ16)</f>
+        <f t="shared" ref="BA16:BA22" si="73">SUM(AV16:AZ16)</f>
         <v>0</v>
       </c>
       <c r="BB16" s="22"/>
@@ -6373,155 +6378,155 @@
         <v>655723.91666666663</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" ref="C17:BB17" si="55">AVERAGE(C4:C15)</f>
+        <f t="shared" ref="C17:BB17" si="74">AVERAGE(C4:C15)</f>
         <v>40</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>16393.097916666669</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>107789.69166666665</v>
       </c>
       <c r="F17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>47789.916666666664</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>84013.866666666669</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>9869.6666666666661</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>122956.25</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>372419.39166666666</v>
       </c>
       <c r="K17" s="14">
-        <f t="shared" ref="K17:P17" si="56">AVERAGE(K4:K15)</f>
+        <f t="shared" ref="K17:P17" si="75">AVERAGE(K4:K15)</f>
         <v>10.194208451112081</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="75"/>
         <v>2.582391832272207</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="75"/>
         <v>12.368835600217141</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="75"/>
         <v>0.62367240985234418</v>
       </c>
       <c r="O17" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="75"/>
         <v>9.7796541849772023</v>
       </c>
       <c r="P17" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="75"/>
         <v>35.548762478430966</v>
       </c>
       <c r="Q17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>2.9416666666666664</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>1.5833333333333333</v>
       </c>
       <c r="S17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>3.2166666666666668</v>
       </c>
       <c r="T17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="U17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>2.9333333333333336</v>
       </c>
       <c r="V17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>11.091666666666663</v>
       </c>
       <c r="W17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>37908.658512544796</v>
       </c>
       <c r="X17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>32295.791666666668</v>
       </c>
       <c r="Y17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>27244.246133207071</v>
       </c>
       <c r="Z17" s="14" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>42780.236378205125</v>
       </c>
       <c r="AB17" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>33811.813699274928</v>
       </c>
       <c r="AC17" s="14" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="14">
-        <f ca="1">AVERAGE(AD4:AD31)</f>
+        <f t="shared" ref="AD17:AN17" ca="1" si="76">AVERAGE(AD4:AD31)</f>
         <v>10.249696197112383</v>
       </c>
       <c r="AE17" s="14">
-        <f ca="1">AVERAGE(AE4:AE31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>2.0374537428220081</v>
       </c>
       <c r="AF17" s="14">
-        <f ca="1">AVERAGE(AF4:AF31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>16.799987320105178</v>
       </c>
       <c r="AG17" s="14">
-        <f ca="1">AVERAGE(AG4:AG31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>0.63436884284019246</v>
       </c>
       <c r="AH17" s="14">
-        <f ca="1">AVERAGE(AH4:AH31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>8.9263606011867207</v>
       </c>
       <c r="AI17" s="14">
-        <f ca="1">AVERAGE(AI4:AI31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>38.647866704066487</v>
       </c>
       <c r="AJ17" s="14">
-        <f ca="1">AVERAGE(AJ4:AJ31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>100854.70833333333</v>
       </c>
       <c r="AK17" s="14">
-        <f ca="1">AVERAGE(AK4:AK31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>34351.333333333336</v>
       </c>
       <c r="AL17" s="14">
-        <f ca="1">AVERAGE(AL4:AL31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>110712.84166666667</v>
       </c>
       <c r="AM17" s="14">
-        <f ca="1">AVERAGE(AM4:AM31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>7220.166666666667</v>
       </c>
       <c r="AN17" s="14">
-        <f ca="1">AVERAGE(AN4:AN31)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>114430.25833333335</v>
       </c>
       <c r="AO17" s="14">
@@ -6529,351 +6534,351 @@
         <v>367569.30833333335</v>
       </c>
       <c r="AP17" s="14">
-        <f ca="1">AVERAGE(AP4:AP31)</f>
+        <f t="shared" ref="AP17:BA17" ca="1" si="77">AVERAGE(AP4:AP31)</f>
         <v>2.8000000000000007</v>
       </c>
       <c r="AQ17" s="14">
-        <f ca="1">AVERAGE(AQ4:AQ31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="AR17" s="14">
-        <f ca="1">AVERAGE(AR4:AR31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="AS17" s="14">
-        <f ca="1">AVERAGE(AS4:AS31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="AT17" s="14">
-        <f ca="1">AVERAGE(AT4:AT31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>2.7083333333333335</v>
       </c>
       <c r="AU17" s="14">
-        <f ca="1">AVERAGE(AU4:AU31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>10.258333333333333</v>
       </c>
       <c r="AV17" s="14">
-        <f ca="1">AVERAGE(AV4:AV31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>37359.049945619277</v>
       </c>
       <c r="AW17" s="14" t="e">
-        <f>AVERAGE(AW4:AW31)</f>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX17" s="14">
-        <f ca="1">AVERAGE(AX4:AX31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>35301.789134162573</v>
       </c>
       <c r="AY17" s="14" t="e">
-        <f>AVERAGE(AY4:AY31)</f>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ17" s="14">
-        <f ca="1">AVERAGE(AZ4:AZ31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>43540.299991877844</v>
       </c>
       <c r="BA17" s="14">
-        <f ca="1">AVERAGE(BA4:BA31)</f>
+        <f t="shared" ca="1" si="77"/>
         <v>36664.909740888274</v>
       </c>
       <c r="BB17" s="14" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC17" s="14">
-        <f>AVERAGE(BC4:BC12)</f>
+        <f t="shared" ref="BC17:BZ17" si="78">AVERAGE(BC4:BC12)</f>
         <v>81343.244444444455</v>
       </c>
       <c r="BD17" s="14">
-        <f>AVERAGE(BD4:BD12)</f>
+        <f t="shared" si="78"/>
         <v>23004.888888888891</v>
       </c>
       <c r="BE17" s="14">
-        <f>AVERAGE(BE4:BE12)</f>
+        <f t="shared" si="78"/>
         <v>156590.72222222222</v>
       </c>
       <c r="BF17" s="14">
-        <f>AVERAGE(BF4:BF12)</f>
+        <f t="shared" si="78"/>
         <v>3265.2222222222222</v>
       </c>
       <c r="BG17" s="14">
-        <f>AVERAGE(BG4:BG12)</f>
+        <f t="shared" si="78"/>
         <v>95136.46666666666</v>
       </c>
       <c r="BH17" s="14">
-        <f>AVERAGE(BH4:BH12)</f>
+        <f t="shared" si="78"/>
         <v>359340.54444444436</v>
       </c>
       <c r="BI17" s="14">
-        <f>AVERAGE(BI4:BI12)</f>
+        <f t="shared" si="78"/>
         <v>2.5444444444444443</v>
       </c>
       <c r="BJ17" s="14">
-        <f>AVERAGE(BJ4:BJ12)</f>
+        <f t="shared" si="78"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="BK17" s="14">
-        <f>AVERAGE(BK4:BK12)</f>
+        <f t="shared" si="78"/>
         <v>4.3444444444444441</v>
       </c>
       <c r="BL17" s="14">
-        <f>AVERAGE(BL4:BL12)</f>
+        <f t="shared" si="78"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="BM17" s="14">
-        <f>AVERAGE(BM4:BM12)</f>
+        <f t="shared" si="78"/>
         <v>2.6444444444444444</v>
       </c>
       <c r="BN17" s="14">
-        <f>AVERAGE(BN4:BN12)</f>
+        <f t="shared" si="78"/>
         <v>10.533333333333333</v>
       </c>
       <c r="BO17" s="14">
-        <f>AVERAGE(BO4:BO12)</f>
+        <f t="shared" si="78"/>
         <v>16718.680605929399</v>
       </c>
       <c r="BP17" s="14" t="e">
-        <f>AVERAGE(BP4:BP12)</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ17" s="14">
-        <f>AVERAGE(BQ4:BQ12)</f>
+        <f t="shared" si="78"/>
         <v>20372.242135861234</v>
       </c>
       <c r="BR17" s="14" t="e">
-        <f>AVERAGE(BR4:BR12)</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS17" s="14">
-        <f>AVERAGE(BS4:BS12)</f>
+        <f t="shared" si="78"/>
         <v>18889.620075497867</v>
       </c>
       <c r="BT17" s="14">
-        <f>AVERAGE(BT4:BT12)</f>
+        <f t="shared" si="78"/>
         <v>34440.123937752222</v>
       </c>
       <c r="BU17" s="14">
-        <f>AVERAGE(BU4:BU12)</f>
+        <f t="shared" si="78"/>
         <v>8.1341976536644616</v>
       </c>
       <c r="BV17" s="14">
-        <f>AVERAGE(BV4:BV12)</f>
+        <f t="shared" si="78"/>
         <v>1.3664139376746256</v>
       </c>
       <c r="BW17" s="14">
-        <f>AVERAGE(BW4:BW12)</f>
+        <f t="shared" si="78"/>
         <v>29.193615780936309</v>
       </c>
       <c r="BX17" s="14">
-        <f>AVERAGE(BX4:BX12)</f>
+        <f t="shared" si="78"/>
         <v>0.24548061953650446</v>
       </c>
       <c r="BY17" s="14">
-        <f>AVERAGE(BY4:BY12)</f>
+        <f t="shared" si="78"/>
         <v>7.475407860014152</v>
       </c>
       <c r="BZ17" s="14">
-        <f>AVERAGE(BZ4:BZ12)</f>
+        <f t="shared" si="78"/>
         <v>46.415115851826059</v>
       </c>
       <c r="CA17" s="14" t="e">
-        <f t="shared" ref="CA17:CZ17" si="57">AVERAGE(CA4:CA15)</f>
+        <f t="shared" ref="CA17:CZ17" si="79">AVERAGE(CA4:CA15)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CB17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>98296.650000000009</v>
       </c>
       <c r="CC17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>33309.916666666664</v>
       </c>
       <c r="CD17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>112403.83333333333</v>
       </c>
       <c r="CE17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>8589.6666666666661</v>
       </c>
       <c r="CF17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>113516.33333333333</v>
       </c>
       <c r="CG17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>366116.40000000008</v>
       </c>
       <c r="CH17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>2.8583333333333329</v>
       </c>
       <c r="CI17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="CJ17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>3.4083333333333332</v>
       </c>
       <c r="CK17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>0.5</v>
       </c>
       <c r="CL17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>2.7333333333333329</v>
       </c>
       <c r="CM17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>10.583333333333332</v>
       </c>
       <c r="CN17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>36582.986289171946</v>
       </c>
       <c r="CO17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CP17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>33289.897099205184</v>
       </c>
       <c r="CQ17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>43129.282943822691</v>
       </c>
       <c r="CS17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>35511.130180068161</v>
       </c>
       <c r="CT17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CU17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CV17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CW17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CY17" s="14">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="CZ17" s="14" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DA17" s="14">
-        <f>AVERAGE(DA4:DA15)</f>
+        <f t="shared" ref="DA17:DX17" si="80">AVERAGE(DA4:DA15)</f>
         <v>78394.866666666654</v>
       </c>
       <c r="DB17" s="14">
-        <f>AVERAGE(DB4:DB15)</f>
+        <f t="shared" si="80"/>
         <v>45296.141666666663</v>
       </c>
       <c r="DC17" s="14">
-        <f>AVERAGE(DC4:DC15)</f>
+        <f t="shared" si="80"/>
         <v>178140.02499999999</v>
       </c>
       <c r="DD17" s="14">
-        <f>AVERAGE(DD4:DD15)</f>
+        <f t="shared" si="80"/>
         <v>3675.75</v>
       </c>
       <c r="DE17" s="14">
-        <f>AVERAGE(DE4:DE15)</f>
+        <f t="shared" si="80"/>
         <v>32724.858333333334</v>
       </c>
       <c r="DF17" s="14">
-        <f>AVERAGE(DF4:DF15)</f>
+        <f t="shared" si="80"/>
         <v>338231.6416666666</v>
       </c>
       <c r="DG17" s="14">
-        <f>AVERAGE(DG4:DG15)</f>
+        <f t="shared" si="80"/>
         <v>2.3583333333333334</v>
       </c>
       <c r="DH17" s="14">
-        <f>AVERAGE(DH4:DH15)</f>
+        <f t="shared" si="80"/>
         <v>1.0250000000000001</v>
       </c>
       <c r="DI17" s="14">
-        <f>AVERAGE(DI4:DI15)</f>
+        <f t="shared" si="80"/>
         <v>4.4749999999999996</v>
       </c>
       <c r="DJ17" s="14">
-        <f>AVERAGE(DJ4:DJ15)</f>
+        <f t="shared" si="80"/>
         <v>0.25</v>
       </c>
       <c r="DK17" s="14">
-        <f>AVERAGE(DK4:DK15)</f>
+        <f t="shared" si="80"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="DL17" s="14">
-        <f>AVERAGE(DL4:DL15)</f>
+        <f t="shared" si="80"/>
         <v>9.2416666666666671</v>
       </c>
       <c r="DM17" s="14">
-        <f>AVERAGE(DM4:DM15)</f>
+        <f t="shared" si="80"/>
         <v>26869.723388294715</v>
       </c>
       <c r="DN17" s="14" t="e">
-        <f>AVERAGE(DN4:DN15)</f>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO17" s="14">
-        <f>AVERAGE(DO4:DO15)</f>
+        <f t="shared" si="80"/>
         <v>33070.079540952611</v>
       </c>
       <c r="DP17" s="14" t="e">
-        <f>AVERAGE(DP4:DP15)</f>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ17" s="14" t="e">
-        <f>AVERAGE(DQ4:DQ15)</f>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR17" s="14">
-        <f>AVERAGE(DR4:DR15)</f>
+        <f t="shared" si="80"/>
         <v>37139.829221903979</v>
       </c>
       <c r="DS17" s="14">
-        <f>AVERAGE(DS4:DS15)</f>
+        <f t="shared" si="80"/>
         <v>13.350602652629208</v>
       </c>
       <c r="DT17" s="14">
-        <f>AVERAGE(DT4:DT15)</f>
+        <f t="shared" si="80"/>
         <v>8.428503898779546</v>
       </c>
       <c r="DU17" s="14">
-        <f>AVERAGE(DU4:DU15)</f>
+        <f t="shared" si="80"/>
         <v>45.366003491481116</v>
       </c>
       <c r="DV17" s="14">
-        <f>AVERAGE(DV4:DV15)</f>
+        <f t="shared" si="80"/>
         <v>0.27777676781018501</v>
       </c>
       <c r="DW17" s="14">
-        <f>AVERAGE(DW4:DW15)</f>
+        <f t="shared" si="80"/>
         <v>6.4676195979118267</v>
       </c>
       <c r="DX17" s="14">
-        <f>AVERAGE(DX4:DX15)</f>
+        <f t="shared" si="80"/>
         <v>73.890506408611884</v>
       </c>
     </row>
@@ -6894,12 +6899,12 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="5"/>
       <c r="AU18" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV18" s="5"/>
       <c r="BA18" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="BB18" s="22"/>
@@ -7006,12 +7011,12 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="5"/>
       <c r="AU19" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV19" s="5"/>
       <c r="BA19" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="BB19" s="22"/>
@@ -7118,12 +7123,12 @@
       <c r="AO20" s="4"/>
       <c r="AP20" s="5"/>
       <c r="AU20" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV20" s="5"/>
       <c r="BA20" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="BB20" s="22"/>
@@ -7254,7 +7259,7 @@
       <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
       <c r="AU21" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV21" s="5"/>
@@ -7263,7 +7268,7 @@
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="BB21" s="22"/>
@@ -7388,7 +7393,7 @@
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV22" s="5"/>
@@ -7397,7 +7402,7 @@
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="BB22" s="22"/>
@@ -7952,7 +7957,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="22"/>
-      <c r="AU27" s="41"/>
+      <c r="AU27" s="35"/>
       <c r="BB27" s="22"/>
       <c r="BI27" s="5"/>
       <c r="BK27" s="4"/>
@@ -8068,7 +8073,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="22"/>
-      <c r="AU28" s="42"/>
+      <c r="AU28" s="36"/>
       <c r="BB28" s="22"/>
       <c r="BI28" s="5"/>
       <c r="BO28" s="5"/>
@@ -8180,7 +8185,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="22"/>
-      <c r="AU29" s="42"/>
+      <c r="AU29" s="36"/>
       <c r="BB29" s="22"/>
       <c r="BI29" s="5"/>
       <c r="BO29" s="5"/>
@@ -8292,7 +8297,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="22"/>
-      <c r="AU30" s="42"/>
+      <c r="AU30" s="36"/>
       <c r="BB30" s="22"/>
       <c r="BI30" s="5"/>
       <c r="BO30" s="5"/>
@@ -8407,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="22"/>
-      <c r="AU31" s="42"/>
+      <c r="AU31" s="36"/>
       <c r="BI31" s="5"/>
       <c r="BO31" s="5"/>
       <c r="BU31" s="5"/>
@@ -8518,7 +8523,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="22"/>
-      <c r="AU32" s="42"/>
+      <c r="AU32" s="36"/>
       <c r="CB32" s="33" t="s">
         <v>41</v>
       </c>
@@ -8619,7 +8624,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="22"/>
-      <c r="AU33" s="42"/>
+      <c r="AU33" s="36"/>
       <c r="BB33" s="22"/>
       <c r="BC33" s="4"/>
       <c r="BD33" s="4"/>
@@ -8711,7 +8716,7 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
-      <c r="AU34" s="42"/>
+      <c r="AU34" s="36"/>
     </row>
     <row r="35" spans="2:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
@@ -8746,7 +8751,7 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
-      <c r="AU35" s="42"/>
+      <c r="AU35" s="36"/>
     </row>
     <row r="36" spans="2:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
@@ -8786,7 +8791,7 @@
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
-      <c r="AU36" s="42"/>
+      <c r="AU36" s="36"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
@@ -8859,7 +8864,7 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
-      <c r="AU37" s="42"/>
+      <c r="AU37" s="36"/>
     </row>
     <row r="38" spans="2:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
@@ -8894,7 +8899,7 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
-      <c r="AU38" s="42"/>
+      <c r="AU38" s="36"/>
     </row>
     <row r="39" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
@@ -9612,6 +9617,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="CH1:CM1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="K1:P1"/>
     <mergeCell ref="DM1:DR1"/>
     <mergeCell ref="DS1:DX1"/>
     <mergeCell ref="CN1:CS1"/>
@@ -9619,19 +9637,6 @@
     <mergeCell ref="CB1:CG1"/>
     <mergeCell ref="DA1:DF1"/>
     <mergeCell ref="DG1:DL1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AD1:AI1"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="BU1:BZ1"/>
-    <mergeCell ref="CH1:CM1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AV1:BA1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="BO1:BT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
